--- a/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.572517242114574</v>
+        <v>1.045989641131547</v>
       </c>
       <c r="D3">
+        <v>1.273347642058612</v>
+      </c>
+      <c r="E3">
         <v>1.045989641131547</v>
       </c>
-      <c r="E3">
-        <v>1.273347642058612</v>
-      </c>
       <c r="F3">
-        <v>1.572517242114574</v>
+        <v>1.572517242114573</v>
       </c>
       <c r="G3">
+        <v>0.9502224071441108</v>
+      </c>
+      <c r="H3">
         <v>1.177839841333464</v>
       </c>
-      <c r="H3">
-        <v>0.9502224071441108</v>
-      </c>
       <c r="I3">
-        <v>1.161434674159722</v>
+        <v>1.572517242114573</v>
       </c>
       <c r="J3">
-        <v>1.045989641131547</v>
+        <v>1.161434674159723</v>
       </c>
       <c r="K3">
-        <v>1.572517242114574</v>
+        <v>1.572517242114573</v>
       </c>
       <c r="L3">
         <v>1.273347642058612</v>
@@ -659,10 +671,10 @@
         <v>1.297284841768244</v>
       </c>
       <c r="R3">
-        <v>1.366092941854827</v>
+        <v>1.366092941854826</v>
       </c>
       <c r="S3">
-        <v>1.366092941854827</v>
+        <v>1.366092941854826</v>
       </c>
       <c r="T3">
         <v>1.196891907990338</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.507221551800816</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="D4">
+        <v>1.721055814077713</v>
+      </c>
+      <c r="E4">
         <v>1.479773334251186</v>
-      </c>
-      <c r="E4">
-        <v>1.721055814077713</v>
       </c>
       <c r="F4">
         <v>2.507221551800816</v>
       </c>
       <c r="G4">
+        <v>0.8792844329467681</v>
+      </c>
+      <c r="H4">
         <v>1.298376438201873</v>
       </c>
-      <c r="H4">
-        <v>0.8792844329467678</v>
-      </c>
       <c r="I4">
+        <v>2.507221551800816</v>
+      </c>
+      <c r="J4">
         <v>1.503409534334297</v>
-      </c>
-      <c r="J4">
-        <v>1.479773334251186</v>
       </c>
       <c r="K4">
         <v>2.507221551800816</v>
@@ -738,34 +750,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.960309422239399</v>
+        <v>4.330193755065936</v>
       </c>
       <c r="D5">
+        <v>3.118398085965447</v>
+      </c>
+      <c r="E5">
         <v>4.330193755065936</v>
-      </c>
-      <c r="E5">
-        <v>3.118398085965448</v>
       </c>
       <c r="F5">
         <v>5.960309422239399</v>
       </c>
       <c r="G5">
+        <v>1.850493037745039</v>
+      </c>
+      <c r="H5">
         <v>3.964704781710156</v>
       </c>
-      <c r="H5">
-        <v>1.850493037745039</v>
-      </c>
       <c r="I5">
-        <v>3.798526479624375</v>
+        <v>5.960309422239399</v>
       </c>
       <c r="J5">
-        <v>4.330193755065936</v>
+        <v>3.798526479624376</v>
       </c>
       <c r="K5">
         <v>5.960309422239399</v>
       </c>
       <c r="L5">
-        <v>3.118398085965448</v>
+        <v>3.118398085965447</v>
       </c>
       <c r="M5">
         <v>3.724295920515692</v>
@@ -777,7 +789,7 @@
         <v>3.099694959592141</v>
       </c>
       <c r="P5">
-        <v>4.469633754423595</v>
+        <v>4.469633754423594</v>
       </c>
       <c r="Q5">
         <v>4.469633754423595</v>
@@ -800,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.26288094591287</v>
+        <v>0.1070041049772218</v>
       </c>
       <c r="D6">
+        <v>10.88227182456263</v>
+      </c>
+      <c r="E6">
         <v>0.1070041049772218</v>
       </c>
-      <c r="E6">
-        <v>10.88227182456263</v>
-      </c>
       <c r="F6">
-        <v>12.26288094591287</v>
+        <v>12.26288094591286</v>
       </c>
       <c r="G6">
+        <v>0.04325811624299651</v>
+      </c>
+      <c r="H6">
         <v>3.229795046361537</v>
       </c>
-      <c r="H6">
-        <v>0.04325811624299651</v>
-      </c>
       <c r="I6">
+        <v>12.26288094591286</v>
+      </c>
+      <c r="J6">
         <v>0.9151919655743044</v>
       </c>
-      <c r="J6">
-        <v>0.1070041049772218</v>
-      </c>
       <c r="K6">
-        <v>12.26288094591287</v>
+        <v>12.26288094591286</v>
       </c>
       <c r="L6">
         <v>10.88227182456263</v>
@@ -839,10 +851,10 @@
         <v>3.677511348594283</v>
       </c>
       <c r="P6">
-        <v>7.75071895848424</v>
+        <v>7.750718958484239</v>
       </c>
       <c r="Q6">
-        <v>7.75071895848424</v>
+        <v>7.750718958484239</v>
       </c>
       <c r="R6">
         <v>8.878759455341395</v>
@@ -862,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.08224196448483</v>
+        <v>1.062946715407066</v>
       </c>
       <c r="D7">
-        <v>1.062946715407064</v>
+        <v>1.030911062864018</v>
       </c>
       <c r="E7">
-        <v>1.030911062864021</v>
+        <v>1.062946715407066</v>
       </c>
       <c r="F7">
-        <v>1.08224196448483</v>
+        <v>1.082241964484829</v>
       </c>
       <c r="G7">
+        <v>0.9779751962118345</v>
+      </c>
+      <c r="H7">
         <v>1.162287450366937</v>
       </c>
-      <c r="H7">
-        <v>0.9779751962118333</v>
-      </c>
       <c r="I7">
+        <v>1.082241964484829</v>
+      </c>
+      <c r="J7">
         <v>0.9783762930724471</v>
       </c>
-      <c r="J7">
-        <v>1.062946715407064</v>
-      </c>
       <c r="K7">
-        <v>1.08224196448483</v>
+        <v>1.082241964484829</v>
       </c>
       <c r="L7">
-        <v>1.030911062864021</v>
+        <v>1.030911062864018</v>
       </c>
       <c r="M7">
         <v>1.046928889135542</v>
@@ -901,10 +913,10 @@
         <v>1.023944324827639</v>
       </c>
       <c r="P7">
-        <v>1.058699914251972</v>
+        <v>1.058699914251971</v>
       </c>
       <c r="Q7">
-        <v>1.058699914251972</v>
+        <v>1.058699914251971</v>
       </c>
       <c r="R7">
         <v>1.064585426810186</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.093080295293459</v>
+        <v>1.039253921882487</v>
       </c>
       <c r="D8">
+        <v>1.058485453128431</v>
+      </c>
+      <c r="E8">
         <v>1.039253921882487</v>
-      </c>
-      <c r="E8">
-        <v>1.058485453128433</v>
       </c>
       <c r="F8">
         <v>1.093080295293459</v>
       </c>
       <c r="G8">
-        <v>1.324258026014896</v>
+        <v>0.9705248191665813</v>
       </c>
       <c r="H8">
-        <v>0.9705248191665824</v>
+        <v>1.324258026014927</v>
       </c>
       <c r="I8">
-        <v>0.9801341153376975</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="J8">
-        <v>1.039253921882487</v>
+        <v>0.9801341153376971</v>
       </c>
       <c r="K8">
         <v>1.093080295293459</v>
       </c>
       <c r="L8">
-        <v>1.058485453128433</v>
+        <v>1.058485453128431</v>
       </c>
       <c r="M8">
-        <v>1.04886968750546</v>
+        <v>1.048869687505459</v>
       </c>
       <c r="N8">
-        <v>1.04886968750546</v>
+        <v>1.048869687505459</v>
       </c>
       <c r="O8">
-        <v>1.022754731392501</v>
+        <v>1.0227547313925</v>
       </c>
       <c r="P8">
-        <v>1.063606556768127</v>
+        <v>1.063606556768126</v>
       </c>
       <c r="Q8">
-        <v>1.063606556768127</v>
+        <v>1.063606556768126</v>
       </c>
       <c r="R8">
-        <v>1.07097499139946</v>
+        <v>1.070974991399459</v>
       </c>
       <c r="S8">
-        <v>1.07097499139946</v>
+        <v>1.070974991399459</v>
       </c>
       <c r="T8">
-        <v>1.077622771803926</v>
+        <v>1.07762277180393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.307363680041294</v>
+        <v>1.048582640567457</v>
       </c>
       <c r="D9">
+        <v>1.24678520876364</v>
+      </c>
+      <c r="E9">
         <v>1.048582640567457</v>
-      </c>
-      <c r="E9">
-        <v>1.24678520876364</v>
       </c>
       <c r="F9">
         <v>1.307363680041294</v>
       </c>
       <c r="G9">
+        <v>0.9547268601577849</v>
+      </c>
+      <c r="H9">
         <v>1.275827877585625</v>
       </c>
-      <c r="H9">
-        <v>0.9547268601577849</v>
-      </c>
       <c r="I9">
+        <v>1.307363680041294</v>
+      </c>
+      <c r="J9">
         <v>0.9147999731377596</v>
-      </c>
-      <c r="J9">
-        <v>1.048582640567457</v>
       </c>
       <c r="K9">
         <v>1.307363680041294</v>
@@ -1031,10 +1043,10 @@
         <v>1.200910509790797</v>
       </c>
       <c r="R9">
-        <v>1.227523802353421</v>
+        <v>1.227523802353422</v>
       </c>
       <c r="S9">
-        <v>1.227523802353421</v>
+        <v>1.227523802353422</v>
       </c>
       <c r="T9">
         <v>1.12468104004226</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.479663816692741</v>
+        <v>0.769996965817621</v>
       </c>
       <c r="D10">
+        <v>1.341285055356127</v>
+      </c>
+      <c r="E10">
         <v>0.769996965817621</v>
-      </c>
-      <c r="E10">
-        <v>1.341285055356127</v>
       </c>
       <c r="F10">
         <v>1.479663816692741</v>
       </c>
       <c r="G10">
+        <v>0.945412705994285</v>
+      </c>
+      <c r="H10">
         <v>1.912494255677739</v>
       </c>
-      <c r="H10">
-        <v>0.945412705994285</v>
-      </c>
       <c r="I10">
+        <v>1.479663816692741</v>
+      </c>
+      <c r="J10">
         <v>1.133246404979569</v>
-      </c>
-      <c r="J10">
-        <v>0.769996965817621</v>
       </c>
       <c r="K10">
         <v>1.479663816692741</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.827303623590034</v>
+        <v>0.942568225196648</v>
       </c>
       <c r="D11">
-        <v>0.9425682251966506</v>
+        <v>1.851860809849362</v>
       </c>
       <c r="E11">
-        <v>1.851860809849362</v>
+        <v>0.942568225196648</v>
       </c>
       <c r="F11">
         <v>1.827303623590034</v>
       </c>
       <c r="G11">
+        <v>1.06741363070627</v>
+      </c>
+      <c r="H11">
         <v>1.907407520171893</v>
       </c>
-      <c r="H11">
-        <v>1.06741363070627</v>
-      </c>
       <c r="I11">
-        <v>0.7384858256504598</v>
+        <v>1.827303623590034</v>
       </c>
       <c r="J11">
-        <v>0.9425682251966506</v>
+        <v>0.7384858256504601</v>
       </c>
       <c r="K11">
         <v>1.827303623590034</v>
@@ -1140,28 +1152,28 @@
         <v>1.851860809849362</v>
       </c>
       <c r="M11">
-        <v>1.397214517523006</v>
+        <v>1.397214517523005</v>
       </c>
       <c r="N11">
-        <v>1.397214517523006</v>
+        <v>1.397214517523005</v>
       </c>
       <c r="O11">
-        <v>1.287280888584094</v>
+        <v>1.287280888584093</v>
       </c>
       <c r="P11">
-        <v>1.540577552878682</v>
+        <v>1.540577552878681</v>
       </c>
       <c r="Q11">
-        <v>1.540577552878682</v>
+        <v>1.540577552878681</v>
       </c>
       <c r="R11">
-        <v>1.61225907055652</v>
+        <v>1.612259070556519</v>
       </c>
       <c r="S11">
-        <v>1.61225907055652</v>
+        <v>1.612259070556519</v>
       </c>
       <c r="T11">
-        <v>1.389173272527445</v>
+        <v>1.389173272527444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.645276007539249</v>
+        <v>0.0100713410659336</v>
       </c>
       <c r="D12">
-        <v>0.01007134106593362</v>
+        <v>0.3479958596716068</v>
       </c>
       <c r="E12">
-        <v>0.3479958596716096</v>
+        <v>0.0100713410659336</v>
       </c>
       <c r="F12">
         <v>1.645276007539249</v>
       </c>
       <c r="G12">
-        <v>0.00160000083500577</v>
+        <v>1.138075822104208</v>
       </c>
       <c r="H12">
-        <v>1.138075822104208</v>
+        <v>0.001600000835005771</v>
       </c>
       <c r="I12">
-        <v>1.244482298369298</v>
+        <v>1.645276007539249</v>
       </c>
       <c r="J12">
-        <v>0.01007134106593362</v>
+        <v>1.244482298369297</v>
       </c>
       <c r="K12">
         <v>1.645276007539249</v>
       </c>
       <c r="L12">
-        <v>0.3479958596716096</v>
+        <v>0.3479958596716068</v>
       </c>
       <c r="M12">
-        <v>0.1790336003687716</v>
+        <v>0.1790336003687702</v>
       </c>
       <c r="N12">
-        <v>0.1790336003687716</v>
+        <v>0.1790336003687702</v>
       </c>
       <c r="O12">
-        <v>0.4987143409472503</v>
+        <v>0.4987143409472495</v>
       </c>
       <c r="P12">
-        <v>0.6677810694255975</v>
+        <v>0.6677810694255965</v>
       </c>
       <c r="Q12">
-        <v>0.6677810694255975</v>
+        <v>0.6677810694255965</v>
       </c>
       <c r="R12">
-        <v>0.9121548039540104</v>
+        <v>0.9121548039540095</v>
       </c>
       <c r="S12">
-        <v>0.9121548039540104</v>
+        <v>0.9121548039540095</v>
       </c>
       <c r="T12">
-        <v>0.7312502215975506</v>
+        <v>0.7312502215975499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1246,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.928449050339549</v>
+        <v>1.650064962615372</v>
       </c>
       <c r="D13">
-        <v>1.650064962615382</v>
+        <v>1.633576257107254</v>
       </c>
       <c r="E13">
-        <v>1.633576257107252</v>
+        <v>1.650064962615372</v>
       </c>
       <c r="F13">
-        <v>1.928449050339549</v>
+        <v>1.928449050339546</v>
       </c>
       <c r="G13">
-        <v>0.05656710915642415</v>
+        <v>0.5302572272526754</v>
       </c>
       <c r="H13">
-        <v>0.5302572272526757</v>
+        <v>0.05656710915642411</v>
       </c>
       <c r="I13">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="J13">
         <v>1.436277442811253</v>
       </c>
-      <c r="J13">
-        <v>1.650064962615382</v>
-      </c>
       <c r="K13">
-        <v>1.928449050339549</v>
+        <v>1.928449050339546</v>
       </c>
       <c r="L13">
-        <v>1.633576257107252</v>
+        <v>1.633576257107254</v>
       </c>
       <c r="M13">
-        <v>1.641820609861317</v>
+        <v>1.641820609861313</v>
       </c>
       <c r="N13">
-        <v>1.641820609861317</v>
+        <v>1.641820609861313</v>
       </c>
       <c r="O13">
-        <v>1.271299482325103</v>
+        <v>1.2712994823251</v>
       </c>
       <c r="P13">
-        <v>1.737363423354061</v>
+        <v>1.737363423354058</v>
       </c>
       <c r="Q13">
-        <v>1.737363423354061</v>
+        <v>1.737363423354058</v>
       </c>
       <c r="R13">
-        <v>1.785134830100433</v>
+        <v>1.78513483010043</v>
       </c>
       <c r="S13">
-        <v>1.785134830100433</v>
+        <v>1.78513483010043</v>
       </c>
       <c r="T13">
-        <v>1.205865341547089</v>
+        <v>1.205865341547087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9226275428907239</v>
+        <v>0.004882685303082869</v>
       </c>
       <c r="D14">
-        <v>0.00488268530308287</v>
+        <v>0.01546791224300691</v>
       </c>
       <c r="E14">
-        <v>0.01546791224300697</v>
+        <v>0.004882685303082869</v>
       </c>
       <c r="F14">
-        <v>0.9226275428907239</v>
+        <v>0.922627542890721</v>
       </c>
       <c r="G14">
-        <v>0.002970357101030384</v>
+        <v>2.894535788288745</v>
       </c>
       <c r="H14">
-        <v>2.894535788288744</v>
+        <v>0.002970357101030387</v>
       </c>
       <c r="I14">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="J14">
         <v>1.102646680729866</v>
       </c>
-      <c r="J14">
-        <v>0.00488268530308287</v>
-      </c>
       <c r="K14">
-        <v>0.9226275428907239</v>
+        <v>0.922627542890721</v>
       </c>
       <c r="L14">
-        <v>0.01546791224300697</v>
+        <v>0.01546791224300691</v>
       </c>
       <c r="M14">
-        <v>0.01017529877304492</v>
+        <v>0.01017529877304489</v>
       </c>
       <c r="N14">
-        <v>0.01017529877304492</v>
+        <v>0.01017529877304489</v>
       </c>
       <c r="O14">
-        <v>0.9716287952782782</v>
+        <v>0.9716287952782783</v>
       </c>
       <c r="P14">
-        <v>0.3143260468122712</v>
+        <v>0.3143260468122703</v>
       </c>
       <c r="Q14">
-        <v>0.3143260468122712</v>
+        <v>0.3143260468122703</v>
       </c>
       <c r="R14">
-        <v>0.4664014208318844</v>
+        <v>0.466401420831883</v>
       </c>
       <c r="S14">
-        <v>0.4664014208318844</v>
+        <v>0.466401420831883</v>
       </c>
       <c r="T14">
-        <v>0.8238551610927424</v>
+        <v>0.8238551610927421</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.01097219575902145</v>
+        <v>3.589107571436648</v>
       </c>
       <c r="D15">
+        <v>1.423443948246854</v>
+      </c>
+      <c r="E15">
         <v>3.589107571436648</v>
       </c>
-      <c r="E15">
-        <v>1.423443948246854</v>
-      </c>
       <c r="F15">
-        <v>0.01097219575902145</v>
+        <v>0.01097219575902146</v>
       </c>
       <c r="G15">
+        <v>0.1778061872477396</v>
+      </c>
+      <c r="H15">
         <v>0.0605567227953113</v>
       </c>
-      <c r="H15">
-        <v>0.1778061872477397</v>
-      </c>
       <c r="I15">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="J15">
         <v>0.4681021409464109</v>
       </c>
-      <c r="J15">
-        <v>3.589107571436648</v>
-      </c>
       <c r="K15">
-        <v>0.01097219575902145</v>
+        <v>0.01097219575902146</v>
       </c>
       <c r="L15">
         <v>1.423443948246854</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.159412145012587</v>
+        <v>0.2119601925292655</v>
       </c>
       <c r="D16">
-        <v>1.081848561585453</v>
+        <v>4.53032138703917</v>
       </c>
       <c r="E16">
-        <v>0.9921280338358663</v>
+        <v>0.2119601925292655</v>
       </c>
       <c r="F16">
-        <v>1.159412145012587</v>
+        <v>8.766954581667665</v>
       </c>
       <c r="G16">
-        <v>1.143355373221918</v>
+        <v>0.1965037475443802</v>
       </c>
       <c r="H16">
-        <v>0.9810645328144919</v>
+        <v>1.607949360711467</v>
       </c>
       <c r="I16">
-        <v>0.9385383063251902</v>
+        <v>8.766954581667665</v>
       </c>
       <c r="J16">
-        <v>1.081848561585453</v>
+        <v>4.369424865654969</v>
       </c>
       <c r="K16">
-        <v>1.159412145012587</v>
+        <v>8.766954581667665</v>
       </c>
       <c r="L16">
-        <v>0.9921280338358663</v>
+        <v>4.53032138703917</v>
       </c>
       <c r="M16">
-        <v>1.03698829771066</v>
+        <v>2.371140789784218</v>
       </c>
       <c r="N16">
-        <v>1.03698829771066</v>
+        <v>2.371140789784218</v>
       </c>
       <c r="O16">
-        <v>1.018347042745271</v>
+        <v>1.646261775704272</v>
       </c>
       <c r="P16">
-        <v>1.077796246811302</v>
+        <v>4.503078720412033</v>
       </c>
       <c r="Q16">
-        <v>1.077796246811302</v>
+        <v>4.503078720412033</v>
       </c>
       <c r="R16">
-        <v>1.098200221361623</v>
+        <v>5.569047685725941</v>
       </c>
       <c r="S16">
-        <v>1.098200221361623</v>
+        <v>5.569047685725941</v>
       </c>
       <c r="T16">
-        <v>1.049391158799251</v>
+        <v>3.280519022524486</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8810832456393974</v>
+        <v>0.4159891992595091</v>
       </c>
       <c r="D17">
-        <v>1.104687234289083</v>
+        <v>3.385869680488517</v>
       </c>
       <c r="E17">
-        <v>1.102914045232359</v>
+        <v>0.4159891992595091</v>
       </c>
       <c r="F17">
-        <v>0.8810832456393974</v>
+        <v>6.168432621513674</v>
       </c>
       <c r="G17">
-        <v>1.172521687033673</v>
+        <v>0.3910159299981908</v>
       </c>
       <c r="H17">
-        <v>0.9894330972085646</v>
+        <v>3.308375395864644</v>
       </c>
       <c r="I17">
-        <v>0.964612273311512</v>
+        <v>6.168432621513674</v>
       </c>
       <c r="J17">
-        <v>1.104687234289083</v>
+        <v>3.225840334840484</v>
       </c>
       <c r="K17">
-        <v>0.8810832456393974</v>
+        <v>6.168432621513674</v>
       </c>
       <c r="L17">
-        <v>1.102914045232359</v>
+        <v>3.385869680488517</v>
       </c>
       <c r="M17">
-        <v>1.103800639760721</v>
+        <v>1.900929439874013</v>
       </c>
       <c r="N17">
-        <v>1.103800639760721</v>
+        <v>1.900929439874013</v>
       </c>
       <c r="O17">
-        <v>1.065678125576669</v>
+        <v>1.397624936582072</v>
       </c>
       <c r="P17">
-        <v>1.029561508386946</v>
+        <v>3.323430500420566</v>
       </c>
       <c r="Q17">
-        <v>1.029561508386946</v>
+        <v>3.323430500420566</v>
       </c>
       <c r="R17">
-        <v>0.9924419427000591</v>
+        <v>4.034681030693843</v>
       </c>
       <c r="S17">
-        <v>0.9924419427000591</v>
+        <v>4.034681030693843</v>
       </c>
       <c r="T17">
-        <v>1.035875263785765</v>
+        <v>2.81592052699417</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7339276296517867</v>
+        <v>1.252316074552591</v>
       </c>
       <c r="D18">
-        <v>1.340030159116157</v>
+        <v>1.485780778597426</v>
       </c>
       <c r="E18">
-        <v>2.009424794230663</v>
+        <v>1.252316074552591</v>
       </c>
       <c r="F18">
-        <v>0.7339276296517867</v>
+        <v>1.388668370112928</v>
       </c>
       <c r="G18">
-        <v>1.209154787623151</v>
+        <v>0.7067235808521762</v>
       </c>
       <c r="H18">
-        <v>1.034119068695151</v>
+        <v>6.843639213553307</v>
       </c>
       <c r="I18">
-        <v>0.6316024566718869</v>
+        <v>1.388668370112928</v>
       </c>
       <c r="J18">
-        <v>1.340030159116157</v>
+        <v>0.9489817571931822</v>
       </c>
       <c r="K18">
-        <v>0.7339276296517867</v>
+        <v>1.388668370112928</v>
       </c>
       <c r="L18">
-        <v>2.009424794230663</v>
+        <v>1.485780778597426</v>
       </c>
       <c r="M18">
-        <v>1.67472747667341</v>
+        <v>1.369048426575009</v>
       </c>
       <c r="N18">
-        <v>1.67472747667341</v>
+        <v>1.369048426575009</v>
       </c>
       <c r="O18">
-        <v>1.461191340680657</v>
+        <v>1.148273478000731</v>
       </c>
       <c r="P18">
-        <v>1.361127527666203</v>
+        <v>1.375588407754315</v>
       </c>
       <c r="Q18">
-        <v>1.361127527666203</v>
+        <v>1.375588407754315</v>
       </c>
       <c r="R18">
-        <v>1.204327553162599</v>
+        <v>1.378858398343968</v>
       </c>
       <c r="S18">
-        <v>1.204327553162599</v>
+        <v>1.378858398343968</v>
       </c>
       <c r="T18">
-        <v>1.159709815998133</v>
+        <v>2.104351629143602</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>2.764846302325602</v>
+      </c>
+      <c r="D19">
+        <v>0.8974101224871613</v>
+      </c>
+      <c r="E19">
+        <v>2.764846302325602</v>
+      </c>
+      <c r="F19">
+        <v>1.403394983420822</v>
+      </c>
+      <c r="G19">
+        <v>0.5302616126395382</v>
+      </c>
+      <c r="H19">
+        <v>9.049674515243698</v>
+      </c>
+      <c r="I19">
+        <v>1.403394983420822</v>
+      </c>
+      <c r="J19">
+        <v>1.256781123727493</v>
+      </c>
+      <c r="K19">
+        <v>1.403394983420822</v>
+      </c>
+      <c r="L19">
+        <v>0.8974101224871613</v>
+      </c>
+      <c r="M19">
+        <v>1.831128212406381</v>
+      </c>
+      <c r="N19">
+        <v>1.831128212406381</v>
+      </c>
+      <c r="O19">
+        <v>1.397506012484101</v>
+      </c>
+      <c r="P19">
+        <v>1.688550469411195</v>
+      </c>
+      <c r="Q19">
+        <v>1.688550469411195</v>
+      </c>
+      <c r="R19">
+        <v>1.617261597913602</v>
+      </c>
+      <c r="S19">
+        <v>1.617261597913602</v>
+      </c>
+      <c r="T19">
+        <v>2.650394776640719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.081848561585454</v>
+      </c>
+      <c r="D20">
+        <v>0.9921280338358672</v>
+      </c>
+      <c r="E20">
+        <v>1.081848561585454</v>
+      </c>
+      <c r="F20">
+        <v>1.159412145012592</v>
+      </c>
+      <c r="G20">
+        <v>0.9810645328144905</v>
+      </c>
+      <c r="H20">
+        <v>1.143355373221918</v>
+      </c>
+      <c r="I20">
+        <v>1.159412145012592</v>
+      </c>
+      <c r="J20">
+        <v>0.9385383063251925</v>
+      </c>
+      <c r="K20">
+        <v>1.159412145012592</v>
+      </c>
+      <c r="L20">
+        <v>0.9921280338358672</v>
+      </c>
+      <c r="M20">
+        <v>1.036988297710661</v>
+      </c>
+      <c r="N20">
+        <v>1.036988297710661</v>
+      </c>
+      <c r="O20">
+        <v>1.018347042745271</v>
+      </c>
+      <c r="P20">
+        <v>1.077796246811305</v>
+      </c>
+      <c r="Q20">
+        <v>1.077796246811304</v>
+      </c>
+      <c r="R20">
+        <v>1.098200221361626</v>
+      </c>
+      <c r="S20">
+        <v>1.098200221361626</v>
+      </c>
+      <c r="T20">
+        <v>1.049391158799252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.104687234289082</v>
+      </c>
+      <c r="D21">
+        <v>1.102914045232361</v>
+      </c>
+      <c r="E21">
+        <v>1.104687234289082</v>
+      </c>
+      <c r="F21">
+        <v>0.881083245639403</v>
+      </c>
+      <c r="G21">
+        <v>0.9894330972085649</v>
+      </c>
+      <c r="H21">
+        <v>1.172521687033672</v>
+      </c>
+      <c r="I21">
+        <v>0.881083245639403</v>
+      </c>
+      <c r="J21">
+        <v>0.9646122733115143</v>
+      </c>
+      <c r="K21">
+        <v>0.881083245639403</v>
+      </c>
+      <c r="L21">
+        <v>1.102914045232361</v>
+      </c>
+      <c r="M21">
+        <v>1.103800639760721</v>
+      </c>
+      <c r="N21">
+        <v>1.103800639760721</v>
+      </c>
+      <c r="O21">
+        <v>1.065678125576669</v>
+      </c>
+      <c r="P21">
+        <v>1.029561508386948</v>
+      </c>
+      <c r="Q21">
+        <v>1.029561508386949</v>
+      </c>
+      <c r="R21">
+        <v>0.9924419427000623</v>
+      </c>
+      <c r="S21">
+        <v>0.9924419427000623</v>
+      </c>
+      <c r="T21">
+        <v>1.035875263785766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.340030159116158</v>
+      </c>
+      <c r="D22">
+        <v>2.009424794230667</v>
+      </c>
+      <c r="E22">
+        <v>1.340030159116158</v>
+      </c>
+      <c r="F22">
+        <v>0.7339276296518015</v>
+      </c>
+      <c r="G22">
+        <v>1.034119068695154</v>
+      </c>
+      <c r="H22">
+        <v>1.209154787623151</v>
+      </c>
+      <c r="I22">
+        <v>0.7339276296518015</v>
+      </c>
+      <c r="J22">
+        <v>0.6316024566718874</v>
+      </c>
+      <c r="K22">
+        <v>0.7339276296518015</v>
+      </c>
+      <c r="L22">
+        <v>2.009424794230667</v>
+      </c>
+      <c r="M22">
+        <v>1.674727476673413</v>
+      </c>
+      <c r="N22">
+        <v>1.674727476673413</v>
+      </c>
+      <c r="O22">
+        <v>1.46119134068066</v>
+      </c>
+      <c r="P22">
+        <v>1.361127527666209</v>
+      </c>
+      <c r="Q22">
+        <v>1.361127527666209</v>
+      </c>
+      <c r="R22">
+        <v>1.204327553162607</v>
+      </c>
+      <c r="S22">
+        <v>1.204327553162607</v>
+      </c>
+      <c r="T22">
+        <v>1.159709815998137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.259408477045264</v>
+      </c>
+      <c r="D23">
+        <v>0.4135223232392422</v>
+      </c>
+      <c r="E23">
+        <v>0.259408477045264</v>
+      </c>
+      <c r="F23">
         <v>1.693307272707933</v>
       </c>
-      <c r="D19">
-        <v>0.2594084770452641</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.371796989556987</v>
+      </c>
+      <c r="H23">
+        <v>1.778489337290555</v>
+      </c>
+      <c r="I23">
+        <v>1.693307272707933</v>
+      </c>
+      <c r="J23">
+        <v>1.528779413372385</v>
+      </c>
+      <c r="K23">
+        <v>1.693307272707933</v>
+      </c>
+      <c r="L23">
         <v>0.4135223232392422</v>
       </c>
-      <c r="F19">
-        <v>1.693307272707933</v>
-      </c>
-      <c r="G19">
-        <v>1.778489337290556</v>
-      </c>
-      <c r="H19">
-        <v>1.371796989556987</v>
-      </c>
-      <c r="I19">
-        <v>1.528779413372385</v>
-      </c>
-      <c r="J19">
-        <v>0.2594084770452641</v>
-      </c>
-      <c r="K19">
-        <v>1.693307272707933</v>
-      </c>
-      <c r="L19">
-        <v>0.4135223232392422</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.3364654001422531</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.3364654001422531</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.6815759299471642</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.7887460243308132</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.7887460243308131</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.014886336425093</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.014886336425093</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.174217302202061</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.045989641131547</v>
+        <v>0.8735616781658915</v>
       </c>
       <c r="D3">
-        <v>1.273347642058612</v>
+        <v>1.175951333331117</v>
       </c>
       <c r="E3">
-        <v>1.045989641131547</v>
+        <v>0.8735616781658915</v>
       </c>
       <c r="F3">
-        <v>1.572517242114573</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="G3">
-        <v>0.9502224071441108</v>
+        <v>0.7337263429781762</v>
       </c>
       <c r="H3">
-        <v>1.177839841333464</v>
+        <v>10.87289321638412</v>
       </c>
       <c r="I3">
-        <v>1.572517242114573</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="J3">
-        <v>1.161434674159723</v>
+        <v>1.007534560647574</v>
       </c>
       <c r="K3">
-        <v>1.572517242114573</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="L3">
-        <v>1.273347642058612</v>
+        <v>1.175951333331117</v>
       </c>
       <c r="M3">
-        <v>1.15966864159508</v>
+        <v>1.024756505748504</v>
       </c>
       <c r="N3">
-        <v>1.15966864159508</v>
+        <v>1.024756505748504</v>
       </c>
       <c r="O3">
-        <v>1.089853230111423</v>
+        <v>0.9277464514917281</v>
       </c>
       <c r="P3">
-        <v>1.297284841768244</v>
+        <v>1.089704384341124</v>
       </c>
       <c r="Q3">
-        <v>1.297284841768244</v>
+        <v>1.089704384341124</v>
       </c>
       <c r="R3">
-        <v>1.366092941854826</v>
+        <v>1.122178323637435</v>
       </c>
       <c r="S3">
-        <v>1.366092941854826</v>
+        <v>1.122178323637435</v>
       </c>
       <c r="T3">
-        <v>1.196891907990338</v>
+        <v>2.647211212172208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.479773334251186</v>
+        <v>0.85291131552893</v>
       </c>
       <c r="D4">
-        <v>1.721055814077713</v>
+        <v>1.098474703742222</v>
       </c>
       <c r="E4">
-        <v>1.479773334251186</v>
+        <v>0.85291131552893</v>
       </c>
       <c r="F4">
-        <v>2.507221551800816</v>
+        <v>1.083937652195524</v>
       </c>
       <c r="G4">
-        <v>0.8792844329467681</v>
+        <v>0.7591949126014407</v>
       </c>
       <c r="H4">
-        <v>1.298376438201873</v>
+        <v>8.583260411902312</v>
       </c>
       <c r="I4">
-        <v>2.507221551800816</v>
+        <v>1.083937652195524</v>
       </c>
       <c r="J4">
-        <v>1.503409534334297</v>
+        <v>0.9685962853277402</v>
       </c>
       <c r="K4">
-        <v>2.507221551800816</v>
+        <v>1.083937652195524</v>
       </c>
       <c r="L4">
-        <v>1.721055814077713</v>
+        <v>1.098474703742222</v>
       </c>
       <c r="M4">
-        <v>1.60041457416445</v>
+        <v>0.975693009635576</v>
       </c>
       <c r="N4">
-        <v>1.60041457416445</v>
+        <v>0.975693009635576</v>
       </c>
       <c r="O4">
-        <v>1.360037860425223</v>
+        <v>0.9035269772908642</v>
       </c>
       <c r="P4">
-        <v>1.902683566709905</v>
+        <v>1.011774557155559</v>
       </c>
       <c r="Q4">
-        <v>1.902683566709905</v>
+        <v>1.011774557155559</v>
       </c>
       <c r="R4">
-        <v>2.053818062982633</v>
+        <v>1.02981533091555</v>
       </c>
       <c r="S4">
-        <v>2.053818062982633</v>
+        <v>1.02981533091555</v>
       </c>
       <c r="T4">
-        <v>1.564853517602109</v>
+        <v>2.224395880216361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.330193755065936</v>
+        <v>0.300597655035946</v>
       </c>
       <c r="D5">
-        <v>3.118398085965447</v>
+        <v>2.59538141153531</v>
       </c>
       <c r="E5">
-        <v>4.330193755065936</v>
+        <v>0.300597655035946</v>
       </c>
       <c r="F5">
-        <v>5.960309422239399</v>
+        <v>2.114854534522641</v>
       </c>
       <c r="G5">
-        <v>1.850493037745039</v>
+        <v>0.5403224860503516</v>
       </c>
       <c r="H5">
-        <v>3.964704781710156</v>
+        <v>20.28124074386474</v>
       </c>
       <c r="I5">
-        <v>5.960309422239399</v>
+        <v>2.114854534522641</v>
       </c>
       <c r="J5">
-        <v>3.798526479624376</v>
+        <v>1.570884908640781</v>
       </c>
       <c r="K5">
-        <v>5.960309422239399</v>
+        <v>2.114854534522641</v>
       </c>
       <c r="L5">
-        <v>3.118398085965447</v>
+        <v>2.59538141153531</v>
       </c>
       <c r="M5">
-        <v>3.724295920515692</v>
+        <v>1.447989533285628</v>
       </c>
       <c r="N5">
-        <v>3.724295920515692</v>
+        <v>1.447989533285628</v>
       </c>
       <c r="O5">
-        <v>3.099694959592141</v>
+        <v>1.14543385087387</v>
       </c>
       <c r="P5">
-        <v>4.469633754423594</v>
+        <v>1.670277867031299</v>
       </c>
       <c r="Q5">
-        <v>4.469633754423595</v>
+        <v>1.670277867031299</v>
       </c>
       <c r="R5">
-        <v>4.842302671377546</v>
+        <v>1.781422033904134</v>
       </c>
       <c r="S5">
-        <v>4.842302671377546</v>
+        <v>1.781422033904134</v>
       </c>
       <c r="T5">
-        <v>3.837104260391726</v>
+        <v>4.567213623274961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.1070041049772218</v>
+        <v>0.2270789958144091</v>
       </c>
       <c r="D6">
-        <v>10.88227182456263</v>
+        <v>2.900759132217046</v>
       </c>
       <c r="E6">
-        <v>0.1070041049772218</v>
+        <v>0.2270789958144091</v>
       </c>
       <c r="F6">
-        <v>12.26288094591286</v>
+        <v>4.245023880918408</v>
       </c>
       <c r="G6">
-        <v>0.04325811624299651</v>
+        <v>0.5798747182846588</v>
       </c>
       <c r="H6">
-        <v>3.229795046361537</v>
+        <v>27.23244313858415</v>
       </c>
       <c r="I6">
-        <v>12.26288094591286</v>
+        <v>4.245023880918408</v>
       </c>
       <c r="J6">
-        <v>0.9151919655743044</v>
+        <v>0.3285785727513637</v>
       </c>
       <c r="K6">
-        <v>12.26288094591286</v>
+        <v>4.245023880918408</v>
       </c>
       <c r="L6">
-        <v>10.88227182456263</v>
+        <v>2.900759132217046</v>
       </c>
       <c r="M6">
-        <v>5.494637964769926</v>
+        <v>1.563919064015727</v>
       </c>
       <c r="N6">
-        <v>5.494637964769926</v>
+        <v>1.563919064015727</v>
       </c>
       <c r="O6">
-        <v>3.677511348594283</v>
+        <v>1.235904282105371</v>
       </c>
       <c r="P6">
-        <v>7.750718958484239</v>
+        <v>2.457620669649954</v>
       </c>
       <c r="Q6">
-        <v>7.750718958484239</v>
+        <v>2.457620669649954</v>
       </c>
       <c r="R6">
-        <v>8.878759455341395</v>
+        <v>2.904471472467068</v>
       </c>
       <c r="S6">
-        <v>8.878759455341395</v>
+        <v>2.904471472467068</v>
       </c>
       <c r="T6">
-        <v>4.573400333938593</v>
+        <v>5.918959739761672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.062946715407066</v>
+        <v>7.954994145650124</v>
       </c>
       <c r="D7">
-        <v>1.030911062864018</v>
+        <v>4.111865849105473</v>
       </c>
       <c r="E7">
-        <v>1.062946715407066</v>
+        <v>7.954994145650124</v>
       </c>
       <c r="F7">
-        <v>1.082241964484829</v>
+        <v>3.974003367969421</v>
       </c>
       <c r="G7">
-        <v>0.9779751962118345</v>
+        <v>0.001970542315348778</v>
       </c>
       <c r="H7">
-        <v>1.162287450366937</v>
+        <v>6.606761537387688</v>
       </c>
       <c r="I7">
-        <v>1.082241964484829</v>
+        <v>3.974003367969421</v>
       </c>
       <c r="J7">
-        <v>0.9783762930724471</v>
+        <v>-0.007165554088005319</v>
       </c>
       <c r="K7">
-        <v>1.082241964484829</v>
+        <v>3.974003367969421</v>
       </c>
       <c r="L7">
-        <v>1.030911062864018</v>
+        <v>4.111865849105473</v>
       </c>
       <c r="M7">
-        <v>1.046928889135542</v>
+        <v>6.033429997377798</v>
       </c>
       <c r="N7">
-        <v>1.046928889135542</v>
+        <v>6.033429997377798</v>
       </c>
       <c r="O7">
-        <v>1.023944324827639</v>
+        <v>4.022943512356981</v>
       </c>
       <c r="P7">
-        <v>1.058699914251971</v>
+        <v>5.346954454241672</v>
       </c>
       <c r="Q7">
-        <v>1.058699914251971</v>
+        <v>5.346954454241673</v>
       </c>
       <c r="R7">
-        <v>1.064585426810186</v>
+        <v>5.00371668267361</v>
       </c>
       <c r="S7">
-        <v>1.064585426810186</v>
+        <v>5.00371668267361</v>
       </c>
       <c r="T7">
-        <v>1.049123113734522</v>
+        <v>3.773738314723342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.039253921882487</v>
+        <v>7.914535209058613</v>
       </c>
       <c r="D8">
-        <v>1.058485453128431</v>
+        <v>4.197258233828492</v>
       </c>
       <c r="E8">
-        <v>1.039253921882487</v>
+        <v>7.914535209058613</v>
       </c>
       <c r="F8">
-        <v>1.093080295293459</v>
+        <v>3.950493191603538</v>
       </c>
       <c r="G8">
-        <v>0.9705248191665813</v>
+        <v>0.001963189948349506</v>
       </c>
       <c r="H8">
-        <v>1.324258026014927</v>
+        <v>6.934003087243583</v>
       </c>
       <c r="I8">
-        <v>1.093080295293459</v>
+        <v>3.950493191603538</v>
       </c>
       <c r="J8">
-        <v>0.9801341153376971</v>
+        <v>-0.007159954549942469</v>
       </c>
       <c r="K8">
-        <v>1.093080295293459</v>
+        <v>3.950493191603538</v>
       </c>
       <c r="L8">
-        <v>1.058485453128431</v>
+        <v>4.197258233828492</v>
       </c>
       <c r="M8">
-        <v>1.048869687505459</v>
+        <v>6.055896721443553</v>
       </c>
       <c r="N8">
-        <v>1.048869687505459</v>
+        <v>6.055896721443553</v>
       </c>
       <c r="O8">
-        <v>1.0227547313925</v>
+        <v>4.037918877611818</v>
       </c>
       <c r="P8">
-        <v>1.063606556768126</v>
+        <v>5.354095544830215</v>
       </c>
       <c r="Q8">
-        <v>1.063606556768126</v>
+        <v>5.354095544830215</v>
       </c>
       <c r="R8">
-        <v>1.070974991399459</v>
+        <v>5.003194956523545</v>
       </c>
       <c r="S8">
-        <v>1.070974991399459</v>
+        <v>5.003194956523545</v>
       </c>
       <c r="T8">
-        <v>1.07762277180393</v>
+        <v>3.831848826188772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.048582640567457</v>
+        <v>7.89178042291058</v>
       </c>
       <c r="D9">
-        <v>1.24678520876364</v>
+        <v>4.188352091292037</v>
       </c>
       <c r="E9">
-        <v>1.048582640567457</v>
+        <v>7.89178042291058</v>
       </c>
       <c r="F9">
-        <v>1.307363680041294</v>
+        <v>3.932532989541579</v>
       </c>
       <c r="G9">
-        <v>0.9547268601577849</v>
+        <v>0.001937015860805257</v>
       </c>
       <c r="H9">
-        <v>1.275827877585625</v>
+        <v>7.593563685104991</v>
       </c>
       <c r="I9">
-        <v>1.307363680041294</v>
+        <v>3.932532989541579</v>
       </c>
       <c r="J9">
-        <v>0.9147999731377596</v>
+        <v>-0.007146171605537228</v>
       </c>
       <c r="K9">
-        <v>1.307363680041294</v>
+        <v>3.932532989541579</v>
       </c>
       <c r="L9">
-        <v>1.24678520876364</v>
+        <v>4.188352091292037</v>
       </c>
       <c r="M9">
-        <v>1.147683924665549</v>
+        <v>6.040066257101309</v>
       </c>
       <c r="N9">
-        <v>1.147683924665549</v>
+        <v>6.040066257101309</v>
       </c>
       <c r="O9">
-        <v>1.083364903162961</v>
+        <v>4.027356510021141</v>
       </c>
       <c r="P9">
-        <v>1.200910509790797</v>
+        <v>5.337555167914732</v>
       </c>
       <c r="Q9">
-        <v>1.200910509790797</v>
+        <v>5.337555167914732</v>
       </c>
       <c r="R9">
-        <v>1.227523802353422</v>
+        <v>4.986299623321443</v>
       </c>
       <c r="S9">
-        <v>1.227523802353422</v>
+        <v>4.986299623321443</v>
       </c>
       <c r="T9">
-        <v>1.12468104004226</v>
+        <v>3.933503338850742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.769996965817621</v>
+        <v>7.787433329222141</v>
       </c>
       <c r="D10">
-        <v>1.341285055356127</v>
+        <v>4.659359180102354</v>
       </c>
       <c r="E10">
-        <v>0.769996965817621</v>
+        <v>7.787433329222141</v>
       </c>
       <c r="F10">
-        <v>1.479663816692741</v>
+        <v>3.872860217378564</v>
       </c>
       <c r="G10">
-        <v>0.945412705994285</v>
+        <v>0.001914483606715617</v>
       </c>
       <c r="H10">
-        <v>1.912494255677739</v>
+        <v>8.836009817730902</v>
       </c>
       <c r="I10">
-        <v>1.479663816692741</v>
+        <v>3.872860217378564</v>
       </c>
       <c r="J10">
-        <v>1.133246404979569</v>
+        <v>-0.007061449473820666</v>
       </c>
       <c r="K10">
-        <v>1.479663816692741</v>
+        <v>3.872860217378564</v>
       </c>
       <c r="L10">
-        <v>1.341285055356127</v>
+        <v>4.659359180102354</v>
       </c>
       <c r="M10">
-        <v>1.055641010586874</v>
+        <v>6.223396254662248</v>
       </c>
       <c r="N10">
-        <v>1.055641010586874</v>
+        <v>6.223396254662248</v>
       </c>
       <c r="O10">
-        <v>1.018898242389344</v>
+        <v>4.149568997643737</v>
       </c>
       <c r="P10">
-        <v>1.196981945955496</v>
+        <v>5.439884242234353</v>
       </c>
       <c r="Q10">
-        <v>1.196981945955496</v>
+        <v>5.439884242234353</v>
       </c>
       <c r="R10">
-        <v>1.267652413639808</v>
+        <v>5.048128236020405</v>
       </c>
       <c r="S10">
-        <v>1.267652413639808</v>
+        <v>5.048128236020405</v>
       </c>
       <c r="T10">
-        <v>1.263683200753014</v>
+        <v>4.19175259642781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.942568225196648</v>
+        <v>1.019355739748598</v>
       </c>
       <c r="D11">
-        <v>1.851860809849362</v>
+        <v>1.251599015655396</v>
       </c>
       <c r="E11">
-        <v>0.942568225196648</v>
+        <v>1.019355739748598</v>
       </c>
       <c r="F11">
-        <v>1.827303623590034</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="G11">
-        <v>1.06741363070627</v>
+        <v>0.925743738702426</v>
       </c>
       <c r="H11">
-        <v>1.907407520171893</v>
+        <v>1.077154153520366</v>
       </c>
       <c r="I11">
-        <v>1.827303623590034</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="J11">
-        <v>0.7384858256504601</v>
+        <v>1.164496685071857</v>
       </c>
       <c r="K11">
-        <v>1.827303623590034</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="L11">
-        <v>1.851860809849362</v>
+        <v>1.251599015655396</v>
       </c>
       <c r="M11">
-        <v>1.397214517523005</v>
+        <v>1.135477377701997</v>
       </c>
       <c r="N11">
-        <v>1.397214517523005</v>
+        <v>1.135477377701997</v>
       </c>
       <c r="O11">
-        <v>1.287280888584093</v>
+        <v>1.06556616470214</v>
       </c>
       <c r="P11">
-        <v>1.540577552878681</v>
+        <v>1.28256549539497</v>
       </c>
       <c r="Q11">
-        <v>1.540577552878681</v>
+        <v>1.28256549539497</v>
       </c>
       <c r="R11">
-        <v>1.612259070556519</v>
+        <v>1.356109554241456</v>
       </c>
       <c r="S11">
-        <v>1.612259070556519</v>
+        <v>1.356109554241456</v>
       </c>
       <c r="T11">
-        <v>1.389173272527444</v>
+        <v>1.16918184391326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0100713410659336</v>
+        <v>1.093769212709348</v>
       </c>
       <c r="D12">
-        <v>0.3479958596716068</v>
+        <v>1.128746032378835</v>
       </c>
       <c r="E12">
-        <v>0.0100713410659336</v>
+        <v>1.093769212709348</v>
       </c>
       <c r="F12">
-        <v>1.645276007539249</v>
+        <v>1.32691294770088</v>
       </c>
       <c r="G12">
-        <v>1.138075822104208</v>
+        <v>0.9473630535571387</v>
       </c>
       <c r="H12">
-        <v>0.001600000835005771</v>
+        <v>1.110007049356795</v>
       </c>
       <c r="I12">
-        <v>1.645276007539249</v>
+        <v>1.32691294770088</v>
       </c>
       <c r="J12">
-        <v>1.244482298369297</v>
+        <v>1.070295235592742</v>
       </c>
       <c r="K12">
-        <v>1.645276007539249</v>
+        <v>1.32691294770088</v>
       </c>
       <c r="L12">
-        <v>0.3479958596716068</v>
+        <v>1.128746032378835</v>
       </c>
       <c r="M12">
-        <v>0.1790336003687702</v>
+        <v>1.111257622544092</v>
       </c>
       <c r="N12">
-        <v>0.1790336003687702</v>
+        <v>1.111257622544092</v>
       </c>
       <c r="O12">
-        <v>0.4987143409472495</v>
+        <v>1.05662609954844</v>
       </c>
       <c r="P12">
-        <v>0.6677810694255965</v>
+        <v>1.183142730929688</v>
       </c>
       <c r="Q12">
-        <v>0.6677810694255965</v>
+        <v>1.183142730929688</v>
       </c>
       <c r="R12">
-        <v>0.9121548039540095</v>
+        <v>1.219085285122486</v>
       </c>
       <c r="S12">
-        <v>0.9121548039540095</v>
+        <v>1.219085285122486</v>
       </c>
       <c r="T12">
-        <v>0.7312502215975499</v>
+        <v>1.112848921882623</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.650064962615372</v>
+        <v>0.2820326712738392</v>
       </c>
       <c r="D13">
-        <v>1.633576257107254</v>
+        <v>2.948487151229569</v>
       </c>
       <c r="E13">
-        <v>1.650064962615372</v>
+        <v>0.2820326712738392</v>
       </c>
       <c r="F13">
-        <v>1.928449050339546</v>
+        <v>3.352758318132771</v>
       </c>
       <c r="G13">
-        <v>0.5302572272526754</v>
+        <v>0.9873928139323245</v>
       </c>
       <c r="H13">
-        <v>0.05656710915642411</v>
+        <v>2.597116731360746</v>
       </c>
       <c r="I13">
-        <v>1.928449050339546</v>
+        <v>3.352758318132771</v>
       </c>
       <c r="J13">
-        <v>1.436277442811253</v>
+        <v>2.496211700955279</v>
       </c>
       <c r="K13">
-        <v>1.928449050339546</v>
+        <v>3.352758318132771</v>
       </c>
       <c r="L13">
-        <v>1.633576257107254</v>
+        <v>2.948487151229569</v>
       </c>
       <c r="M13">
-        <v>1.641820609861313</v>
+        <v>1.615259911251704</v>
       </c>
       <c r="N13">
-        <v>1.641820609861313</v>
+        <v>1.615259911251704</v>
       </c>
       <c r="O13">
-        <v>1.2712994823251</v>
+        <v>1.405970878811911</v>
       </c>
       <c r="P13">
-        <v>1.737363423354058</v>
+        <v>2.194426046878726</v>
       </c>
       <c r="Q13">
-        <v>1.737363423354058</v>
+        <v>2.194426046878726</v>
       </c>
       <c r="R13">
-        <v>1.78513483010043</v>
+        <v>2.484009114692237</v>
       </c>
       <c r="S13">
-        <v>1.78513483010043</v>
+        <v>2.484009114692237</v>
       </c>
       <c r="T13">
-        <v>1.205865341547087</v>
+        <v>2.110666564480755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.004882685303082869</v>
+        <v>0.1766650395394622</v>
       </c>
       <c r="D14">
-        <v>0.01546791224300691</v>
+        <v>4.375587937029804</v>
       </c>
       <c r="E14">
-        <v>0.004882685303082869</v>
+        <v>0.1766650395394622</v>
       </c>
       <c r="F14">
-        <v>0.922627542890721</v>
+        <v>7.150259345792141</v>
       </c>
       <c r="G14">
-        <v>2.894535788288745</v>
+        <v>0.8436166863318834</v>
       </c>
       <c r="H14">
-        <v>0.002970357101030387</v>
+        <v>1.962749612117552</v>
       </c>
       <c r="I14">
-        <v>0.922627542890721</v>
+        <v>7.150259345792141</v>
       </c>
       <c r="J14">
-        <v>1.102646680729866</v>
+        <v>0.7658414437401966</v>
       </c>
       <c r="K14">
-        <v>0.922627542890721</v>
+        <v>7.150259345792141</v>
       </c>
       <c r="L14">
-        <v>0.01546791224300691</v>
+        <v>4.375587937029804</v>
       </c>
       <c r="M14">
-        <v>0.01017529877304489</v>
+        <v>2.276126488284633</v>
       </c>
       <c r="N14">
-        <v>0.01017529877304489</v>
+        <v>2.276126488284633</v>
       </c>
       <c r="O14">
-        <v>0.9716287952782783</v>
+        <v>1.79862322096705</v>
       </c>
       <c r="P14">
-        <v>0.3143260468122703</v>
+        <v>3.900837440787136</v>
       </c>
       <c r="Q14">
-        <v>0.3143260468122703</v>
+        <v>3.900837440787136</v>
       </c>
       <c r="R14">
-        <v>0.466401420831883</v>
+        <v>4.713192917038387</v>
       </c>
       <c r="S14">
-        <v>0.466401420831883</v>
+        <v>4.713192917038387</v>
       </c>
       <c r="T14">
-        <v>0.8238551610927421</v>
+        <v>2.545786677425173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.589107571436648</v>
+        <v>1.045989641131547</v>
       </c>
       <c r="D15">
-        <v>1.423443948246854</v>
+        <v>1.273347642058612</v>
       </c>
       <c r="E15">
-        <v>3.589107571436648</v>
+        <v>1.045989641131547</v>
       </c>
       <c r="F15">
-        <v>0.01097219575902146</v>
+        <v>1.572517242114573</v>
       </c>
       <c r="G15">
-        <v>0.1778061872477396</v>
+        <v>0.9502224071441108</v>
       </c>
       <c r="H15">
-        <v>0.0605567227953113</v>
+        <v>1.177839841333464</v>
       </c>
       <c r="I15">
-        <v>0.01097219575902146</v>
+        <v>1.572517242114573</v>
       </c>
       <c r="J15">
-        <v>0.4681021409464109</v>
+        <v>1.161434674159723</v>
       </c>
       <c r="K15">
-        <v>0.01097219575902146</v>
+        <v>1.572517242114573</v>
       </c>
       <c r="L15">
-        <v>1.423443948246854</v>
+        <v>1.273347642058612</v>
       </c>
       <c r="M15">
-        <v>2.506275759841751</v>
+        <v>1.15966864159508</v>
       </c>
       <c r="N15">
-        <v>2.506275759841751</v>
+        <v>1.15966864159508</v>
       </c>
       <c r="O15">
-        <v>1.730119235643747</v>
+        <v>1.089853230111423</v>
       </c>
       <c r="P15">
-        <v>1.674507905147508</v>
+        <v>1.297284841768244</v>
       </c>
       <c r="Q15">
-        <v>1.674507905147508</v>
+        <v>1.297284841768244</v>
       </c>
       <c r="R15">
-        <v>1.258623977800386</v>
+        <v>1.366092941854826</v>
       </c>
       <c r="S15">
-        <v>1.258623977800386</v>
+        <v>1.366092941854826</v>
       </c>
       <c r="T15">
-        <v>0.9549981277386643</v>
+        <v>1.196891907990338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2119601925292655</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="D16">
-        <v>4.53032138703917</v>
+        <v>1.721055814077713</v>
       </c>
       <c r="E16">
-        <v>0.2119601925292655</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="F16">
-        <v>8.766954581667665</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="G16">
-        <v>0.1965037475443802</v>
+        <v>0.8792844329467681</v>
       </c>
       <c r="H16">
-        <v>1.607949360711467</v>
+        <v>1.298376438201873</v>
       </c>
       <c r="I16">
-        <v>8.766954581667665</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="J16">
-        <v>4.369424865654969</v>
+        <v>1.503409534334297</v>
       </c>
       <c r="K16">
-        <v>8.766954581667665</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="L16">
-        <v>4.53032138703917</v>
+        <v>1.721055814077713</v>
       </c>
       <c r="M16">
-        <v>2.371140789784218</v>
+        <v>1.60041457416445</v>
       </c>
       <c r="N16">
-        <v>2.371140789784218</v>
+        <v>1.60041457416445</v>
       </c>
       <c r="O16">
-        <v>1.646261775704272</v>
+        <v>1.360037860425223</v>
       </c>
       <c r="P16">
-        <v>4.503078720412033</v>
+        <v>1.902683566709905</v>
       </c>
       <c r="Q16">
-        <v>4.503078720412033</v>
+        <v>1.902683566709905</v>
       </c>
       <c r="R16">
-        <v>5.569047685725941</v>
+        <v>2.053818062982633</v>
       </c>
       <c r="S16">
-        <v>5.569047685725941</v>
+        <v>2.053818062982633</v>
       </c>
       <c r="T16">
-        <v>3.280519022524486</v>
+        <v>1.564853517602109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4159891992595091</v>
+        <v>4.330193755065936</v>
       </c>
       <c r="D17">
-        <v>3.385869680488517</v>
+        <v>3.118398085965447</v>
       </c>
       <c r="E17">
-        <v>0.4159891992595091</v>
+        <v>4.330193755065936</v>
       </c>
       <c r="F17">
-        <v>6.168432621513674</v>
+        <v>5.960309422239399</v>
       </c>
       <c r="G17">
-        <v>0.3910159299981908</v>
+        <v>1.850493037745039</v>
       </c>
       <c r="H17">
-        <v>3.308375395864644</v>
+        <v>3.964704781710156</v>
       </c>
       <c r="I17">
-        <v>6.168432621513674</v>
+        <v>5.960309422239399</v>
       </c>
       <c r="J17">
-        <v>3.225840334840484</v>
+        <v>3.798526479624376</v>
       </c>
       <c r="K17">
-        <v>6.168432621513674</v>
+        <v>5.960309422239399</v>
       </c>
       <c r="L17">
-        <v>3.385869680488517</v>
+        <v>3.118398085965447</v>
       </c>
       <c r="M17">
-        <v>1.900929439874013</v>
+        <v>3.724295920515692</v>
       </c>
       <c r="N17">
-        <v>1.900929439874013</v>
+        <v>3.724295920515692</v>
       </c>
       <c r="O17">
-        <v>1.397624936582072</v>
+        <v>3.099694959592141</v>
       </c>
       <c r="P17">
-        <v>3.323430500420566</v>
+        <v>4.469633754423594</v>
       </c>
       <c r="Q17">
-        <v>3.323430500420566</v>
+        <v>4.469633754423595</v>
       </c>
       <c r="R17">
-        <v>4.034681030693843</v>
+        <v>4.842302671377546</v>
       </c>
       <c r="S17">
-        <v>4.034681030693843</v>
+        <v>4.842302671377546</v>
       </c>
       <c r="T17">
-        <v>2.81592052699417</v>
+        <v>3.837104260391726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.252316074552591</v>
+        <v>0.1070041049772218</v>
       </c>
       <c r="D18">
-        <v>1.485780778597426</v>
+        <v>10.88227182456263</v>
       </c>
       <c r="E18">
-        <v>1.252316074552591</v>
+        <v>0.1070041049772218</v>
       </c>
       <c r="F18">
-        <v>1.388668370112928</v>
+        <v>12.26288094591286</v>
       </c>
       <c r="G18">
-        <v>0.7067235808521762</v>
+        <v>0.04325811624299651</v>
       </c>
       <c r="H18">
-        <v>6.843639213553307</v>
+        <v>3.229795046361537</v>
       </c>
       <c r="I18">
-        <v>1.388668370112928</v>
+        <v>12.26288094591286</v>
       </c>
       <c r="J18">
-        <v>0.9489817571931822</v>
+        <v>0.9151919655743044</v>
       </c>
       <c r="K18">
-        <v>1.388668370112928</v>
+        <v>12.26288094591286</v>
       </c>
       <c r="L18">
-        <v>1.485780778597426</v>
+        <v>10.88227182456263</v>
       </c>
       <c r="M18">
-        <v>1.369048426575009</v>
+        <v>5.494637964769926</v>
       </c>
       <c r="N18">
-        <v>1.369048426575009</v>
+        <v>5.494637964769926</v>
       </c>
       <c r="O18">
-        <v>1.148273478000731</v>
+        <v>3.677511348594283</v>
       </c>
       <c r="P18">
-        <v>1.375588407754315</v>
+        <v>7.750718958484239</v>
       </c>
       <c r="Q18">
-        <v>1.375588407754315</v>
+        <v>7.750718958484239</v>
       </c>
       <c r="R18">
-        <v>1.378858398343968</v>
+        <v>8.878759455341395</v>
       </c>
       <c r="S18">
-        <v>1.378858398343968</v>
+        <v>8.878759455341395</v>
       </c>
       <c r="T18">
-        <v>2.104351629143602</v>
+        <v>4.573400333938593</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.764846302325602</v>
+        <v>1.062946715407066</v>
       </c>
       <c r="D19">
-        <v>0.8974101224871613</v>
+        <v>1.030911062864018</v>
       </c>
       <c r="E19">
-        <v>2.764846302325602</v>
+        <v>1.062946715407066</v>
       </c>
       <c r="F19">
-        <v>1.403394983420822</v>
+        <v>1.082241964484829</v>
       </c>
       <c r="G19">
-        <v>0.5302616126395382</v>
+        <v>0.9779751962118345</v>
       </c>
       <c r="H19">
-        <v>9.049674515243698</v>
+        <v>1.162287450366937</v>
       </c>
       <c r="I19">
-        <v>1.403394983420822</v>
+        <v>1.082241964484829</v>
       </c>
       <c r="J19">
-        <v>1.256781123727493</v>
+        <v>0.9783762930724471</v>
       </c>
       <c r="K19">
-        <v>1.403394983420822</v>
+        <v>1.082241964484829</v>
       </c>
       <c r="L19">
-        <v>0.8974101224871613</v>
+        <v>1.030911062864018</v>
       </c>
       <c r="M19">
-        <v>1.831128212406381</v>
+        <v>1.046928889135542</v>
       </c>
       <c r="N19">
-        <v>1.831128212406381</v>
+        <v>1.046928889135542</v>
       </c>
       <c r="O19">
-        <v>1.397506012484101</v>
+        <v>1.023944324827639</v>
       </c>
       <c r="P19">
-        <v>1.688550469411195</v>
+        <v>1.058699914251971</v>
       </c>
       <c r="Q19">
-        <v>1.688550469411195</v>
+        <v>1.058699914251971</v>
       </c>
       <c r="R19">
-        <v>1.617261597913602</v>
+        <v>1.064585426810186</v>
       </c>
       <c r="S19">
-        <v>1.617261597913602</v>
+        <v>1.064585426810186</v>
       </c>
       <c r="T19">
-        <v>2.650394776640719</v>
+        <v>1.049123113734522</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.081848561585454</v>
+        <v>1.039253921882487</v>
       </c>
       <c r="D20">
-        <v>0.9921280338358672</v>
+        <v>1.058485453128431</v>
       </c>
       <c r="E20">
-        <v>1.081848561585454</v>
+        <v>1.039253921882487</v>
       </c>
       <c r="F20">
-        <v>1.159412145012592</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="G20">
-        <v>0.9810645328144905</v>
+        <v>0.9705248191665813</v>
       </c>
       <c r="H20">
-        <v>1.143355373221918</v>
+        <v>1.324258026014927</v>
       </c>
       <c r="I20">
-        <v>1.159412145012592</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="J20">
-        <v>0.9385383063251925</v>
+        <v>0.9801341153376971</v>
       </c>
       <c r="K20">
-        <v>1.159412145012592</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="L20">
-        <v>0.9921280338358672</v>
+        <v>1.058485453128431</v>
       </c>
       <c r="M20">
-        <v>1.036988297710661</v>
+        <v>1.048869687505459</v>
       </c>
       <c r="N20">
-        <v>1.036988297710661</v>
+        <v>1.048869687505459</v>
       </c>
       <c r="O20">
-        <v>1.018347042745271</v>
+        <v>1.0227547313925</v>
       </c>
       <c r="P20">
-        <v>1.077796246811305</v>
+        <v>1.063606556768126</v>
       </c>
       <c r="Q20">
-        <v>1.077796246811304</v>
+        <v>1.063606556768126</v>
       </c>
       <c r="R20">
-        <v>1.098200221361626</v>
+        <v>1.070974991399459</v>
       </c>
       <c r="S20">
-        <v>1.098200221361626</v>
+        <v>1.070974991399459</v>
       </c>
       <c r="T20">
-        <v>1.049391158799252</v>
+        <v>1.07762277180393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.104687234289082</v>
+        <v>1.048582640567457</v>
       </c>
       <c r="D21">
-        <v>1.102914045232361</v>
+        <v>1.24678520876364</v>
       </c>
       <c r="E21">
-        <v>1.104687234289082</v>
+        <v>1.048582640567457</v>
       </c>
       <c r="F21">
-        <v>0.881083245639403</v>
+        <v>1.307363680041294</v>
       </c>
       <c r="G21">
-        <v>0.9894330972085649</v>
+        <v>0.9547268601577849</v>
       </c>
       <c r="H21">
-        <v>1.172521687033672</v>
+        <v>1.275827877585625</v>
       </c>
       <c r="I21">
-        <v>0.881083245639403</v>
+        <v>1.307363680041294</v>
       </c>
       <c r="J21">
-        <v>0.9646122733115143</v>
+        <v>0.9147999731377596</v>
       </c>
       <c r="K21">
-        <v>0.881083245639403</v>
+        <v>1.307363680041294</v>
       </c>
       <c r="L21">
-        <v>1.102914045232361</v>
+        <v>1.24678520876364</v>
       </c>
       <c r="M21">
-        <v>1.103800639760721</v>
+        <v>1.147683924665549</v>
       </c>
       <c r="N21">
-        <v>1.103800639760721</v>
+        <v>1.147683924665549</v>
       </c>
       <c r="O21">
-        <v>1.065678125576669</v>
+        <v>1.083364903162961</v>
       </c>
       <c r="P21">
-        <v>1.029561508386948</v>
+        <v>1.200910509790797</v>
       </c>
       <c r="Q21">
-        <v>1.029561508386949</v>
+        <v>1.200910509790797</v>
       </c>
       <c r="R21">
-        <v>0.9924419427000623</v>
+        <v>1.227523802353422</v>
       </c>
       <c r="S21">
-        <v>0.9924419427000623</v>
+        <v>1.227523802353422</v>
       </c>
       <c r="T21">
-        <v>1.035875263785766</v>
+        <v>1.12468104004226</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.340030159116158</v>
+        <v>0.769996965817621</v>
       </c>
       <c r="D22">
-        <v>2.009424794230667</v>
+        <v>1.341285055356127</v>
       </c>
       <c r="E22">
-        <v>1.340030159116158</v>
+        <v>0.769996965817621</v>
       </c>
       <c r="F22">
-        <v>0.7339276296518015</v>
+        <v>1.479663816692741</v>
       </c>
       <c r="G22">
-        <v>1.034119068695154</v>
+        <v>0.945412705994285</v>
       </c>
       <c r="H22">
-        <v>1.209154787623151</v>
+        <v>1.912494255677739</v>
       </c>
       <c r="I22">
-        <v>0.7339276296518015</v>
+        <v>1.479663816692741</v>
       </c>
       <c r="J22">
-        <v>0.6316024566718874</v>
+        <v>1.133246404979569</v>
       </c>
       <c r="K22">
-        <v>0.7339276296518015</v>
+        <v>1.479663816692741</v>
       </c>
       <c r="L22">
-        <v>2.009424794230667</v>
+        <v>1.341285055356127</v>
       </c>
       <c r="M22">
-        <v>1.674727476673413</v>
+        <v>1.055641010586874</v>
       </c>
       <c r="N22">
-        <v>1.674727476673413</v>
+        <v>1.055641010586874</v>
       </c>
       <c r="O22">
-        <v>1.46119134068066</v>
+        <v>1.018898242389344</v>
       </c>
       <c r="P22">
-        <v>1.361127527666209</v>
+        <v>1.196981945955496</v>
       </c>
       <c r="Q22">
-        <v>1.361127527666209</v>
+        <v>1.196981945955496</v>
       </c>
       <c r="R22">
-        <v>1.204327553162607</v>
+        <v>1.267652413639808</v>
       </c>
       <c r="S22">
-        <v>1.204327553162607</v>
+        <v>1.267652413639808</v>
       </c>
       <c r="T22">
-        <v>1.159709815998137</v>
+        <v>1.263683200753014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.942568225196648</v>
+      </c>
+      <c r="D23">
+        <v>1.851860809849362</v>
+      </c>
+      <c r="E23">
+        <v>0.942568225196648</v>
+      </c>
+      <c r="F23">
+        <v>1.827303623590034</v>
+      </c>
+      <c r="G23">
+        <v>1.06741363070627</v>
+      </c>
+      <c r="H23">
+        <v>1.907407520171893</v>
+      </c>
+      <c r="I23">
+        <v>1.827303623590034</v>
+      </c>
+      <c r="J23">
+        <v>0.7384858256504601</v>
+      </c>
+      <c r="K23">
+        <v>1.827303623590034</v>
+      </c>
+      <c r="L23">
+        <v>1.851860809849362</v>
+      </c>
+      <c r="M23">
+        <v>1.397214517523005</v>
+      </c>
+      <c r="N23">
+        <v>1.397214517523005</v>
+      </c>
+      <c r="O23">
+        <v>1.287280888584093</v>
+      </c>
+      <c r="P23">
+        <v>1.540577552878681</v>
+      </c>
+      <c r="Q23">
+        <v>1.540577552878681</v>
+      </c>
+      <c r="R23">
+        <v>1.612259070556519</v>
+      </c>
+      <c r="S23">
+        <v>1.612259070556519</v>
+      </c>
+      <c r="T23">
+        <v>1.389173272527444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.0100713410659336</v>
+      </c>
+      <c r="D24">
+        <v>0.3479958596716068</v>
+      </c>
+      <c r="E24">
+        <v>0.0100713410659336</v>
+      </c>
+      <c r="F24">
+        <v>1.645276007539249</v>
+      </c>
+      <c r="G24">
+        <v>1.138075822104208</v>
+      </c>
+      <c r="H24">
+        <v>0.001600000835005771</v>
+      </c>
+      <c r="I24">
+        <v>1.645276007539249</v>
+      </c>
+      <c r="J24">
+        <v>1.244482298369297</v>
+      </c>
+      <c r="K24">
+        <v>1.645276007539249</v>
+      </c>
+      <c r="L24">
+        <v>0.3479958596716068</v>
+      </c>
+      <c r="M24">
+        <v>0.1790336003687702</v>
+      </c>
+      <c r="N24">
+        <v>0.1790336003687702</v>
+      </c>
+      <c r="O24">
+        <v>0.4987143409472495</v>
+      </c>
+      <c r="P24">
+        <v>0.6677810694255965</v>
+      </c>
+      <c r="Q24">
+        <v>0.6677810694255965</v>
+      </c>
+      <c r="R24">
+        <v>0.9121548039540095</v>
+      </c>
+      <c r="S24">
+        <v>0.9121548039540095</v>
+      </c>
+      <c r="T24">
+        <v>0.7312502215975499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.650064962615372</v>
+      </c>
+      <c r="D25">
+        <v>1.633576257107254</v>
+      </c>
+      <c r="E25">
+        <v>1.650064962615372</v>
+      </c>
+      <c r="F25">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="G25">
+        <v>0.5302572272526754</v>
+      </c>
+      <c r="H25">
+        <v>0.05656710915642411</v>
+      </c>
+      <c r="I25">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="J25">
+        <v>1.436277442811253</v>
+      </c>
+      <c r="K25">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="L25">
+        <v>1.633576257107254</v>
+      </c>
+      <c r="M25">
+        <v>1.641820609861313</v>
+      </c>
+      <c r="N25">
+        <v>1.641820609861313</v>
+      </c>
+      <c r="O25">
+        <v>1.2712994823251</v>
+      </c>
+      <c r="P25">
+        <v>1.737363423354058</v>
+      </c>
+      <c r="Q25">
+        <v>1.737363423354058</v>
+      </c>
+      <c r="R25">
+        <v>1.78513483010043</v>
+      </c>
+      <c r="S25">
+        <v>1.78513483010043</v>
+      </c>
+      <c r="T25">
+        <v>1.205865341547087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.004882685303082869</v>
+      </c>
+      <c r="D26">
+        <v>0.01546791224300691</v>
+      </c>
+      <c r="E26">
+        <v>0.004882685303082869</v>
+      </c>
+      <c r="F26">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="G26">
+        <v>2.894535788288745</v>
+      </c>
+      <c r="H26">
+        <v>0.002970357101030387</v>
+      </c>
+      <c r="I26">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="J26">
+        <v>1.102646680729866</v>
+      </c>
+      <c r="K26">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="L26">
+        <v>0.01546791224300691</v>
+      </c>
+      <c r="M26">
+        <v>0.01017529877304489</v>
+      </c>
+      <c r="N26">
+        <v>0.01017529877304489</v>
+      </c>
+      <c r="O26">
+        <v>0.9716287952782783</v>
+      </c>
+      <c r="P26">
+        <v>0.3143260468122703</v>
+      </c>
+      <c r="Q26">
+        <v>0.3143260468122703</v>
+      </c>
+      <c r="R26">
+        <v>0.466401420831883</v>
+      </c>
+      <c r="S26">
+        <v>0.466401420831883</v>
+      </c>
+      <c r="T26">
+        <v>0.8238551610927421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3.589107571436648</v>
+      </c>
+      <c r="D27">
+        <v>1.423443948246854</v>
+      </c>
+      <c r="E27">
+        <v>3.589107571436648</v>
+      </c>
+      <c r="F27">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="G27">
+        <v>0.1778061872477396</v>
+      </c>
+      <c r="H27">
+        <v>0.0605567227953113</v>
+      </c>
+      <c r="I27">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="J27">
+        <v>0.4681021409464109</v>
+      </c>
+      <c r="K27">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="L27">
+        <v>1.423443948246854</v>
+      </c>
+      <c r="M27">
+        <v>2.506275759841751</v>
+      </c>
+      <c r="N27">
+        <v>2.506275759841751</v>
+      </c>
+      <c r="O27">
+        <v>1.730119235643747</v>
+      </c>
+      <c r="P27">
+        <v>1.674507905147508</v>
+      </c>
+      <c r="Q27">
+        <v>1.674507905147508</v>
+      </c>
+      <c r="R27">
+        <v>1.258623977800386</v>
+      </c>
+      <c r="S27">
+        <v>1.258623977800386</v>
+      </c>
+      <c r="T27">
+        <v>0.9549981277386643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2119601925292655</v>
+      </c>
+      <c r="D28">
+        <v>4.53032138703917</v>
+      </c>
+      <c r="E28">
+        <v>0.2119601925292655</v>
+      </c>
+      <c r="F28">
+        <v>8.766954581667665</v>
+      </c>
+      <c r="G28">
+        <v>0.1965037475443802</v>
+      </c>
+      <c r="H28">
+        <v>1.607949360711467</v>
+      </c>
+      <c r="I28">
+        <v>8.766954581667665</v>
+      </c>
+      <c r="J28">
+        <v>4.369424865654969</v>
+      </c>
+      <c r="K28">
+        <v>8.766954581667665</v>
+      </c>
+      <c r="L28">
+        <v>4.53032138703917</v>
+      </c>
+      <c r="M28">
+        <v>2.371140789784218</v>
+      </c>
+      <c r="N28">
+        <v>2.371140789784218</v>
+      </c>
+      <c r="O28">
+        <v>1.646261775704272</v>
+      </c>
+      <c r="P28">
+        <v>4.503078720412033</v>
+      </c>
+      <c r="Q28">
+        <v>4.503078720412033</v>
+      </c>
+      <c r="R28">
+        <v>5.569047685725941</v>
+      </c>
+      <c r="S28">
+        <v>5.569047685725941</v>
+      </c>
+      <c r="T28">
+        <v>3.280519022524486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4159891992595091</v>
+      </c>
+      <c r="D29">
+        <v>3.385869680488517</v>
+      </c>
+      <c r="E29">
+        <v>0.4159891992595091</v>
+      </c>
+      <c r="F29">
+        <v>6.168432621513674</v>
+      </c>
+      <c r="G29">
+        <v>0.3910159299981908</v>
+      </c>
+      <c r="H29">
+        <v>3.308375395864644</v>
+      </c>
+      <c r="I29">
+        <v>6.168432621513674</v>
+      </c>
+      <c r="J29">
+        <v>3.225840334840484</v>
+      </c>
+      <c r="K29">
+        <v>6.168432621513674</v>
+      </c>
+      <c r="L29">
+        <v>3.385869680488517</v>
+      </c>
+      <c r="M29">
+        <v>1.900929439874013</v>
+      </c>
+      <c r="N29">
+        <v>1.900929439874013</v>
+      </c>
+      <c r="O29">
+        <v>1.397624936582072</v>
+      </c>
+      <c r="P29">
+        <v>3.323430500420566</v>
+      </c>
+      <c r="Q29">
+        <v>3.323430500420566</v>
+      </c>
+      <c r="R29">
+        <v>4.034681030693843</v>
+      </c>
+      <c r="S29">
+        <v>4.034681030693843</v>
+      </c>
+      <c r="T29">
+        <v>2.81592052699417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.252316074552591</v>
+      </c>
+      <c r="D30">
+        <v>1.485780778597426</v>
+      </c>
+      <c r="E30">
+        <v>1.252316074552591</v>
+      </c>
+      <c r="F30">
+        <v>1.388668370112928</v>
+      </c>
+      <c r="G30">
+        <v>0.7067235808521762</v>
+      </c>
+      <c r="H30">
+        <v>6.843639213553307</v>
+      </c>
+      <c r="I30">
+        <v>1.388668370112928</v>
+      </c>
+      <c r="J30">
+        <v>0.9489817571931822</v>
+      </c>
+      <c r="K30">
+        <v>1.388668370112928</v>
+      </c>
+      <c r="L30">
+        <v>1.485780778597426</v>
+      </c>
+      <c r="M30">
+        <v>1.369048426575009</v>
+      </c>
+      <c r="N30">
+        <v>1.369048426575009</v>
+      </c>
+      <c r="O30">
+        <v>1.148273478000731</v>
+      </c>
+      <c r="P30">
+        <v>1.375588407754315</v>
+      </c>
+      <c r="Q30">
+        <v>1.375588407754315</v>
+      </c>
+      <c r="R30">
+        <v>1.378858398343968</v>
+      </c>
+      <c r="S30">
+        <v>1.378858398343968</v>
+      </c>
+      <c r="T30">
+        <v>2.104351629143602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>2.764846302325602</v>
+      </c>
+      <c r="D31">
+        <v>0.8974101224871613</v>
+      </c>
+      <c r="E31">
+        <v>2.764846302325602</v>
+      </c>
+      <c r="F31">
+        <v>1.403394983420822</v>
+      </c>
+      <c r="G31">
+        <v>0.5302616126395382</v>
+      </c>
+      <c r="H31">
+        <v>9.049674515243698</v>
+      </c>
+      <c r="I31">
+        <v>1.403394983420822</v>
+      </c>
+      <c r="J31">
+        <v>1.256781123727493</v>
+      </c>
+      <c r="K31">
+        <v>1.403394983420822</v>
+      </c>
+      <c r="L31">
+        <v>0.8974101224871613</v>
+      </c>
+      <c r="M31">
+        <v>1.831128212406381</v>
+      </c>
+      <c r="N31">
+        <v>1.831128212406381</v>
+      </c>
+      <c r="O31">
+        <v>1.397506012484101</v>
+      </c>
+      <c r="P31">
+        <v>1.688550469411195</v>
+      </c>
+      <c r="Q31">
+        <v>1.688550469411195</v>
+      </c>
+      <c r="R31">
+        <v>1.617261597913602</v>
+      </c>
+      <c r="S31">
+        <v>1.617261597913602</v>
+      </c>
+      <c r="T31">
+        <v>2.650394776640719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.007344033857123287</v>
+      </c>
+      <c r="D32">
+        <v>6.436479356673974</v>
+      </c>
+      <c r="E32">
+        <v>0.007344033857123287</v>
+      </c>
+      <c r="F32">
+        <v>11.20690028538356</v>
+      </c>
+      <c r="G32">
+        <v>0.001576222587671234</v>
+      </c>
+      <c r="H32">
+        <v>0.008655752832876713</v>
+      </c>
+      <c r="I32">
+        <v>11.20690028538356</v>
+      </c>
+      <c r="J32">
+        <v>5.435899101072878</v>
+      </c>
+      <c r="K32">
+        <v>11.20690028538356</v>
+      </c>
+      <c r="L32">
+        <v>6.436479356673974</v>
+      </c>
+      <c r="M32">
+        <v>3.221911695265549</v>
+      </c>
+      <c r="N32">
+        <v>3.221911695265549</v>
+      </c>
+      <c r="O32">
+        <v>2.148466537706256</v>
+      </c>
+      <c r="P32">
+        <v>5.883574558638219</v>
+      </c>
+      <c r="Q32">
+        <v>5.883574558638219</v>
+      </c>
+      <c r="R32">
+        <v>7.214405990324554</v>
+      </c>
+      <c r="S32">
+        <v>7.214405990324554</v>
+      </c>
+      <c r="T32">
+        <v>3.849475792068013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.0003942795869999995</v>
+      </c>
+      <c r="D33">
+        <v>0.00168871777736842</v>
+      </c>
+      <c r="E33">
+        <v>0.0003942795869999995</v>
+      </c>
+      <c r="F33">
+        <v>6.779364571310526</v>
+      </c>
+      <c r="G33">
+        <v>0.001046686680526316</v>
+      </c>
+      <c r="H33">
+        <v>10.16303202841579</v>
+      </c>
+      <c r="I33">
+        <v>6.779364571310526</v>
+      </c>
+      <c r="J33">
+        <v>1.633355936931579</v>
+      </c>
+      <c r="K33">
+        <v>6.779364571310526</v>
+      </c>
+      <c r="L33">
+        <v>0.00168871777736842</v>
+      </c>
+      <c r="M33">
+        <v>0.00104149868218421</v>
+      </c>
+      <c r="N33">
+        <v>0.00104149868218421</v>
+      </c>
+      <c r="O33">
+        <v>0.001043228014964912</v>
+      </c>
+      <c r="P33">
+        <v>2.260482522891631</v>
+      </c>
+      <c r="Q33">
+        <v>2.260482522891631</v>
+      </c>
+      <c r="R33">
+        <v>3.390203034996355</v>
+      </c>
+      <c r="S33">
+        <v>3.390203034996355</v>
+      </c>
+      <c r="T33">
+        <v>3.096480370117133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>7.154118295693157</v>
+      </c>
+      <c r="D34">
+        <v>5.160627581366316</v>
+      </c>
+      <c r="E34">
+        <v>7.154118295693157</v>
+      </c>
+      <c r="F34">
+        <v>3.576956873611053</v>
+      </c>
+      <c r="G34">
+        <v>0.001693561868421053</v>
+      </c>
+      <c r="H34">
+        <v>15.48609909959527</v>
+      </c>
+      <c r="I34">
+        <v>3.576956873611053</v>
+      </c>
+      <c r="J34">
+        <v>-0.006934659375263157</v>
+      </c>
+      <c r="K34">
+        <v>3.576956873611053</v>
+      </c>
+      <c r="L34">
+        <v>5.160627581366316</v>
+      </c>
+      <c r="M34">
+        <v>6.157372938529736</v>
+      </c>
+      <c r="N34">
+        <v>6.157372938529736</v>
+      </c>
+      <c r="O34">
+        <v>4.105479812975965</v>
+      </c>
+      <c r="P34">
+        <v>5.297234250223508</v>
+      </c>
+      <c r="Q34">
+        <v>5.297234250223508</v>
+      </c>
+      <c r="R34">
+        <v>4.867164906070395</v>
+      </c>
+      <c r="S34">
+        <v>4.867164906070395</v>
+      </c>
+      <c r="T34">
+        <v>5.228760125459825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4034609188848104</v>
+      </c>
+      <c r="D35">
+        <v>0.5007026073312393</v>
+      </c>
+      <c r="E35">
+        <v>0.4034609188848104</v>
+      </c>
+      <c r="F35">
+        <v>0.4925081373364963</v>
+      </c>
+      <c r="G35">
+        <v>0.3908743194575962</v>
+      </c>
+      <c r="H35">
+        <v>93.99212809671255</v>
+      </c>
+      <c r="I35">
+        <v>0.4925081373364963</v>
+      </c>
+      <c r="J35">
+        <v>0.4611644477194979</v>
+      </c>
+      <c r="K35">
+        <v>0.4925081373364963</v>
+      </c>
+      <c r="L35">
+        <v>0.5007026073312393</v>
+      </c>
+      <c r="M35">
+        <v>0.4520817631080248</v>
+      </c>
+      <c r="N35">
+        <v>0.4520817631080248</v>
+      </c>
+      <c r="O35">
+        <v>0.4316792818912153</v>
+      </c>
+      <c r="P35">
+        <v>0.465557221184182</v>
+      </c>
+      <c r="Q35">
+        <v>0.465557221184182</v>
+      </c>
+      <c r="R35">
+        <v>0.4722949502222606</v>
+      </c>
+      <c r="S35">
+        <v>0.4722949502222606</v>
+      </c>
+      <c r="T35">
+        <v>16.0401397545737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.081848561585454</v>
+      </c>
+      <c r="D36">
+        <v>0.9921280338358672</v>
+      </c>
+      <c r="E36">
+        <v>1.081848561585454</v>
+      </c>
+      <c r="F36">
+        <v>1.159412145012592</v>
+      </c>
+      <c r="G36">
+        <v>0.9810645328144905</v>
+      </c>
+      <c r="H36">
+        <v>1.143355373221918</v>
+      </c>
+      <c r="I36">
+        <v>1.159412145012592</v>
+      </c>
+      <c r="J36">
+        <v>0.9385383063251925</v>
+      </c>
+      <c r="K36">
+        <v>1.159412145012592</v>
+      </c>
+      <c r="L36">
+        <v>0.9921280338358672</v>
+      </c>
+      <c r="M36">
+        <v>1.036988297710661</v>
+      </c>
+      <c r="N36">
+        <v>1.036988297710661</v>
+      </c>
+      <c r="O36">
+        <v>1.018347042745271</v>
+      </c>
+      <c r="P36">
+        <v>1.077796246811305</v>
+      </c>
+      <c r="Q36">
+        <v>1.077796246811304</v>
+      </c>
+      <c r="R36">
+        <v>1.098200221361626</v>
+      </c>
+      <c r="S36">
+        <v>1.098200221361626</v>
+      </c>
+      <c r="T36">
+        <v>1.049391158799252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.104687234289082</v>
+      </c>
+      <c r="D37">
+        <v>1.102914045232361</v>
+      </c>
+      <c r="E37">
+        <v>1.104687234289082</v>
+      </c>
+      <c r="F37">
+        <v>0.881083245639403</v>
+      </c>
+      <c r="G37">
+        <v>0.9894330972085649</v>
+      </c>
+      <c r="H37">
+        <v>1.172521687033672</v>
+      </c>
+      <c r="I37">
+        <v>0.881083245639403</v>
+      </c>
+      <c r="J37">
+        <v>0.9646122733115143</v>
+      </c>
+      <c r="K37">
+        <v>0.881083245639403</v>
+      </c>
+      <c r="L37">
+        <v>1.102914045232361</v>
+      </c>
+      <c r="M37">
+        <v>1.103800639760721</v>
+      </c>
+      <c r="N37">
+        <v>1.103800639760721</v>
+      </c>
+      <c r="O37">
+        <v>1.065678125576669</v>
+      </c>
+      <c r="P37">
+        <v>1.029561508386948</v>
+      </c>
+      <c r="Q37">
+        <v>1.029561508386949</v>
+      </c>
+      <c r="R37">
+        <v>0.9924419427000623</v>
+      </c>
+      <c r="S37">
+        <v>0.9924419427000623</v>
+      </c>
+      <c r="T37">
+        <v>1.035875263785766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.340030159116158</v>
+      </c>
+      <c r="D38">
+        <v>2.009424794230667</v>
+      </c>
+      <c r="E38">
+        <v>1.340030159116158</v>
+      </c>
+      <c r="F38">
+        <v>0.7339276296518015</v>
+      </c>
+      <c r="G38">
+        <v>1.034119068695154</v>
+      </c>
+      <c r="H38">
+        <v>1.209154787623151</v>
+      </c>
+      <c r="I38">
+        <v>0.7339276296518015</v>
+      </c>
+      <c r="J38">
+        <v>0.6316024566718874</v>
+      </c>
+      <c r="K38">
+        <v>0.7339276296518015</v>
+      </c>
+      <c r="L38">
+        <v>2.009424794230667</v>
+      </c>
+      <c r="M38">
+        <v>1.674727476673413</v>
+      </c>
+      <c r="N38">
+        <v>1.674727476673413</v>
+      </c>
+      <c r="O38">
+        <v>1.46119134068066</v>
+      </c>
+      <c r="P38">
+        <v>1.361127527666209</v>
+      </c>
+      <c r="Q38">
+        <v>1.361127527666209</v>
+      </c>
+      <c r="R38">
+        <v>1.204327553162607</v>
+      </c>
+      <c r="S38">
+        <v>1.204327553162607</v>
+      </c>
+      <c r="T38">
+        <v>1.159709815998137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.259408477045264</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.4135223232392422</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.259408477045264</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.693307272707933</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.371796989556987</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.778489337290555</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.693307272707933</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.528779413372385</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.693307272707933</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.4135223232392422</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.3364654001422531</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.3364654001422531</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.6815759299471642</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.7887460243308132</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.7887460243308131</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.014886336425093</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.014886336425093</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.174217302202061</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9086233510424613</v>
+      </c>
+      <c r="D40">
+        <v>0.8917741398767245</v>
+      </c>
+      <c r="E40">
+        <v>0.9086233510424613</v>
+      </c>
+      <c r="F40">
+        <v>2.311027842977718</v>
+      </c>
+      <c r="G40">
+        <v>0.8371339077346209</v>
+      </c>
+      <c r="H40">
+        <v>1.047063173779043</v>
+      </c>
+      <c r="I40">
+        <v>2.311027842977718</v>
+      </c>
+      <c r="J40">
+        <v>0.9516456628325004</v>
+      </c>
+      <c r="K40">
+        <v>2.311027842977718</v>
+      </c>
+      <c r="L40">
+        <v>0.8917741398767245</v>
+      </c>
+      <c r="M40">
+        <v>0.9001987454595929</v>
+      </c>
+      <c r="N40">
+        <v>0.9001987454595929</v>
+      </c>
+      <c r="O40">
+        <v>0.8791771328846023</v>
+      </c>
+      <c r="P40">
+        <v>1.370475111298968</v>
+      </c>
+      <c r="Q40">
+        <v>1.370475111298968</v>
+      </c>
+      <c r="R40">
+        <v>1.605613294218655</v>
+      </c>
+      <c r="S40">
+        <v>1.605613294218655</v>
+      </c>
+      <c r="T40">
+        <v>1.157878013040511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.590857703492381</v>
+      </c>
+      <c r="D41">
+        <v>0.9011990936593374</v>
+      </c>
+      <c r="E41">
+        <v>1.590857703492381</v>
+      </c>
+      <c r="F41">
+        <v>0.8808638775030279</v>
+      </c>
+      <c r="G41">
+        <v>1.122704660308856</v>
+      </c>
+      <c r="H41">
+        <v>1.213234431889153</v>
+      </c>
+      <c r="I41">
+        <v>0.8808638775030279</v>
+      </c>
+      <c r="J41">
+        <v>0.8821706230042646</v>
+      </c>
+      <c r="K41">
+        <v>0.8808638775030279</v>
+      </c>
+      <c r="L41">
+        <v>0.9011990936593374</v>
+      </c>
+      <c r="M41">
+        <v>1.246028398575859</v>
+      </c>
+      <c r="N41">
+        <v>1.246028398575859</v>
+      </c>
+      <c r="O41">
+        <v>1.204920485820192</v>
+      </c>
+      <c r="P41">
+        <v>1.124306891551582</v>
+      </c>
+      <c r="Q41">
+        <v>1.124306891551582</v>
+      </c>
+      <c r="R41">
+        <v>1.063446138039444</v>
+      </c>
+      <c r="S41">
+        <v>1.063446138039444</v>
+      </c>
+      <c r="T41">
+        <v>1.09850506497617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.2041534345034539</v>
+      </c>
+      <c r="D42">
+        <v>1.133549124078271</v>
+      </c>
+      <c r="E42">
+        <v>0.2041534345034539</v>
+      </c>
+      <c r="F42">
+        <v>2.45301360725733</v>
+      </c>
+      <c r="G42">
+        <v>0.5919771815111946</v>
+      </c>
+      <c r="H42">
+        <v>1.114025276879375</v>
+      </c>
+      <c r="I42">
+        <v>2.45301360725733</v>
+      </c>
+      <c r="J42">
+        <v>1.228206615739864</v>
+      </c>
+      <c r="K42">
+        <v>2.45301360725733</v>
+      </c>
+      <c r="L42">
+        <v>1.133549124078271</v>
+      </c>
+      <c r="M42">
+        <v>0.6688512792908625</v>
+      </c>
+      <c r="N42">
+        <v>0.6688512792908625</v>
+      </c>
+      <c r="O42">
+        <v>0.6432265800309732</v>
+      </c>
+      <c r="P42">
+        <v>1.263572055279685</v>
+      </c>
+      <c r="Q42">
+        <v>1.263572055279685</v>
+      </c>
+      <c r="R42">
+        <v>1.560932443274096</v>
+      </c>
+      <c r="S42">
+        <v>1.560932443274096</v>
+      </c>
+      <c r="T42">
+        <v>1.120820873328248</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.572517242114574</v>
+        <v>1.039253921882487</v>
       </c>
       <c r="D3">
-        <v>1.045989641131547</v>
+        <v>1.058485453128431</v>
       </c>
       <c r="E3">
-        <v>1.273347642058612</v>
+        <v>1.039253921882487</v>
       </c>
       <c r="F3">
-        <v>1.572517242114574</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="G3">
-        <v>1.177839841333464</v>
+        <v>0.9705248191665813</v>
       </c>
       <c r="H3">
-        <v>0.9502224071441108</v>
+        <v>1.324258026014927</v>
       </c>
       <c r="I3">
-        <v>1.161434674159722</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="J3">
-        <v>1.045989641131547</v>
+        <v>0.9801341153376971</v>
       </c>
       <c r="K3">
-        <v>1.572517242114574</v>
+        <v>1.093080295293459</v>
       </c>
       <c r="L3">
-        <v>1.273347642058612</v>
+        <v>1.058485453128431</v>
       </c>
       <c r="M3">
-        <v>1.15966864159508</v>
+        <v>1.048869687505459</v>
       </c>
       <c r="N3">
-        <v>1.15966864159508</v>
+        <v>1.048869687505459</v>
       </c>
       <c r="O3">
-        <v>1.089853230111423</v>
+        <v>1.0227547313925</v>
       </c>
       <c r="P3">
-        <v>1.297284841768244</v>
+        <v>1.063606556768126</v>
       </c>
       <c r="Q3">
-        <v>1.297284841768244</v>
+        <v>1.063606556768126</v>
       </c>
       <c r="R3">
-        <v>1.366092941854827</v>
+        <v>1.070974991399459</v>
       </c>
       <c r="S3">
-        <v>1.366092941854827</v>
+        <v>1.070974991399459</v>
       </c>
       <c r="T3">
-        <v>1.196891907990338</v>
+        <v>1.07762277180393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.507221551800816</v>
+        <v>0.9086233510424613</v>
       </c>
       <c r="D4">
-        <v>1.479773334251186</v>
+        <v>0.8917741398767245</v>
       </c>
       <c r="E4">
-        <v>1.721055814077713</v>
+        <v>0.9086233510424613</v>
       </c>
       <c r="F4">
-        <v>2.507221551800816</v>
+        <v>2.311027842977718</v>
       </c>
       <c r="G4">
-        <v>1.298376438201873</v>
+        <v>0.8371339077346209</v>
       </c>
       <c r="H4">
-        <v>0.8792844329467678</v>
+        <v>1.047063173779043</v>
       </c>
       <c r="I4">
-        <v>1.503409534334297</v>
+        <v>2.311027842977718</v>
       </c>
       <c r="J4">
-        <v>1.479773334251186</v>
+        <v>0.9516456628325004</v>
       </c>
       <c r="K4">
-        <v>2.507221551800816</v>
+        <v>2.311027842977718</v>
       </c>
       <c r="L4">
-        <v>1.721055814077713</v>
+        <v>0.8917741398767245</v>
       </c>
       <c r="M4">
-        <v>1.60041457416445</v>
+        <v>0.9001987454595929</v>
       </c>
       <c r="N4">
-        <v>1.60041457416445</v>
+        <v>0.9001987454595929</v>
       </c>
       <c r="O4">
-        <v>1.360037860425223</v>
+        <v>0.8791771328846023</v>
       </c>
       <c r="P4">
-        <v>1.902683566709905</v>
+        <v>1.370475111298968</v>
       </c>
       <c r="Q4">
-        <v>1.902683566709905</v>
+        <v>1.370475111298968</v>
       </c>
       <c r="R4">
-        <v>2.053818062982633</v>
+        <v>1.605613294218655</v>
       </c>
       <c r="S4">
-        <v>2.053818062982633</v>
+        <v>1.605613294218655</v>
       </c>
       <c r="T4">
-        <v>1.564853517602109</v>
+        <v>1.157878013040511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.960309422239399</v>
+        <v>0.8735616781658915</v>
       </c>
       <c r="D5">
-        <v>4.330193755065936</v>
+        <v>1.175951333331117</v>
       </c>
       <c r="E5">
-        <v>3.118398085965448</v>
+        <v>0.8735616781658915</v>
       </c>
       <c r="F5">
-        <v>5.960309422239399</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="G5">
-        <v>3.964704781710156</v>
+        <v>0.7337263429781762</v>
       </c>
       <c r="H5">
-        <v>1.850493037745039</v>
+        <v>10.87289321638412</v>
       </c>
       <c r="I5">
-        <v>3.798526479624375</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="J5">
-        <v>4.330193755065936</v>
+        <v>1.007534560647574</v>
       </c>
       <c r="K5">
-        <v>5.960309422239399</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="L5">
-        <v>3.118398085965448</v>
+        <v>1.175951333331117</v>
       </c>
       <c r="M5">
-        <v>3.724295920515692</v>
+        <v>1.024756505748504</v>
       </c>
       <c r="N5">
-        <v>3.724295920515692</v>
+        <v>1.024756505748504</v>
       </c>
       <c r="O5">
-        <v>3.099694959592141</v>
+        <v>0.9277464514917281</v>
       </c>
       <c r="P5">
-        <v>4.469633754423595</v>
+        <v>1.089704384341124</v>
       </c>
       <c r="Q5">
-        <v>4.469633754423595</v>
+        <v>1.089704384341124</v>
       </c>
       <c r="R5">
-        <v>4.842302671377546</v>
+        <v>1.122178323637435</v>
       </c>
       <c r="S5">
-        <v>4.842302671377546</v>
+        <v>1.122178323637435</v>
       </c>
       <c r="T5">
-        <v>3.837104260391726</v>
+        <v>2.647211212172208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.26288094591287</v>
+        <v>0.4034609188848104</v>
       </c>
       <c r="D6">
-        <v>0.1070041049772218</v>
+        <v>0.5007026073312393</v>
       </c>
       <c r="E6">
-        <v>10.88227182456263</v>
+        <v>0.4034609188848104</v>
       </c>
       <c r="F6">
-        <v>12.26288094591287</v>
+        <v>0.4925081373364963</v>
       </c>
       <c r="G6">
-        <v>3.229795046361537</v>
+        <v>0.3908743194575962</v>
       </c>
       <c r="H6">
-        <v>0.04325811624299651</v>
+        <v>93.99212809671255</v>
       </c>
       <c r="I6">
-        <v>0.9151919655743044</v>
+        <v>0.4925081373364963</v>
       </c>
       <c r="J6">
-        <v>0.1070041049772218</v>
+        <v>0.4611644477194979</v>
       </c>
       <c r="K6">
-        <v>12.26288094591287</v>
+        <v>0.4925081373364963</v>
       </c>
       <c r="L6">
-        <v>10.88227182456263</v>
+        <v>0.5007026073312393</v>
       </c>
       <c r="M6">
-        <v>5.494637964769926</v>
+        <v>0.4520817631080248</v>
       </c>
       <c r="N6">
-        <v>5.494637964769926</v>
+        <v>0.4520817631080248</v>
       </c>
       <c r="O6">
-        <v>3.677511348594283</v>
+        <v>0.4316792818912153</v>
       </c>
       <c r="P6">
-        <v>7.75071895848424</v>
+        <v>0.465557221184182</v>
       </c>
       <c r="Q6">
-        <v>7.75071895848424</v>
+        <v>0.465557221184182</v>
       </c>
       <c r="R6">
-        <v>8.878759455341395</v>
+        <v>0.4722949502222606</v>
       </c>
       <c r="S6">
-        <v>8.878759455341395</v>
+        <v>0.4722949502222606</v>
       </c>
       <c r="T6">
-        <v>4.573400333938593</v>
+        <v>16.0401397545737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.08224196448483</v>
+        <v>1.019355739748598</v>
       </c>
       <c r="D7">
-        <v>1.062946715407064</v>
+        <v>1.251599015655396</v>
       </c>
       <c r="E7">
-        <v>1.030911062864021</v>
+        <v>1.019355739748598</v>
       </c>
       <c r="F7">
-        <v>1.08224196448483</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="G7">
-        <v>1.162287450366937</v>
+        <v>0.925743738702426</v>
       </c>
       <c r="H7">
-        <v>0.9779751962118333</v>
+        <v>1.077154153520366</v>
       </c>
       <c r="I7">
-        <v>0.9783762930724471</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="J7">
-        <v>1.062946715407064</v>
+        <v>1.164496685071857</v>
       </c>
       <c r="K7">
-        <v>1.08224196448483</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="L7">
-        <v>1.030911062864021</v>
+        <v>1.251599015655396</v>
       </c>
       <c r="M7">
-        <v>1.046928889135542</v>
+        <v>1.135477377701997</v>
       </c>
       <c r="N7">
-        <v>1.046928889135542</v>
+        <v>1.135477377701997</v>
       </c>
       <c r="O7">
-        <v>1.023944324827639</v>
+        <v>1.06556616470214</v>
       </c>
       <c r="P7">
-        <v>1.058699914251972</v>
+        <v>1.28256549539497</v>
       </c>
       <c r="Q7">
-        <v>1.058699914251972</v>
+        <v>1.28256549539497</v>
       </c>
       <c r="R7">
-        <v>1.064585426810186</v>
+        <v>1.356109554241456</v>
       </c>
       <c r="S7">
-        <v>1.064585426810186</v>
+        <v>1.356109554241456</v>
       </c>
       <c r="T7">
-        <v>1.049123113734522</v>
+        <v>1.16918184391326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.093080295293459</v>
+        <v>1.104687234289082</v>
       </c>
       <c r="D8">
-        <v>1.039253921882487</v>
+        <v>1.102914045232361</v>
       </c>
       <c r="E8">
-        <v>1.058485453128433</v>
+        <v>1.104687234289082</v>
       </c>
       <c r="F8">
-        <v>1.093080295293459</v>
+        <v>0.881083245639403</v>
       </c>
       <c r="G8">
-        <v>1.324258026014896</v>
+        <v>0.9894330972085649</v>
       </c>
       <c r="H8">
-        <v>0.9705248191665824</v>
+        <v>1.172521687033672</v>
       </c>
       <c r="I8">
-        <v>0.9801341153376975</v>
+        <v>0.881083245639403</v>
       </c>
       <c r="J8">
-        <v>1.039253921882487</v>
+        <v>0.9646122733115143</v>
       </c>
       <c r="K8">
-        <v>1.093080295293459</v>
+        <v>0.881083245639403</v>
       </c>
       <c r="L8">
-        <v>1.058485453128433</v>
+        <v>1.102914045232361</v>
       </c>
       <c r="M8">
-        <v>1.04886968750546</v>
+        <v>1.103800639760721</v>
       </c>
       <c r="N8">
-        <v>1.04886968750546</v>
+        <v>1.103800639760721</v>
       </c>
       <c r="O8">
-        <v>1.022754731392501</v>
+        <v>1.065678125576669</v>
       </c>
       <c r="P8">
-        <v>1.063606556768127</v>
+        <v>1.029561508386948</v>
       </c>
       <c r="Q8">
-        <v>1.063606556768127</v>
+        <v>1.029561508386949</v>
       </c>
       <c r="R8">
-        <v>1.07097499139946</v>
+        <v>0.9924419427000623</v>
       </c>
       <c r="S8">
-        <v>1.07097499139946</v>
+        <v>0.9924419427000623</v>
       </c>
       <c r="T8">
-        <v>1.077622771803926</v>
+        <v>1.035875263785766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.307363680041294</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="D9">
-        <v>1.048582640567457</v>
+        <v>1.721055814077713</v>
       </c>
       <c r="E9">
-        <v>1.24678520876364</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="F9">
-        <v>1.307363680041294</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="G9">
-        <v>1.275827877585625</v>
+        <v>0.8792844329467681</v>
       </c>
       <c r="H9">
-        <v>0.9547268601577849</v>
+        <v>1.298376438201873</v>
       </c>
       <c r="I9">
-        <v>0.9147999731377596</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="J9">
-        <v>1.048582640567457</v>
+        <v>1.503409534334297</v>
       </c>
       <c r="K9">
-        <v>1.307363680041294</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="L9">
-        <v>1.24678520876364</v>
+        <v>1.721055814077713</v>
       </c>
       <c r="M9">
-        <v>1.147683924665549</v>
+        <v>1.60041457416445</v>
       </c>
       <c r="N9">
-        <v>1.147683924665549</v>
+        <v>1.60041457416445</v>
       </c>
       <c r="O9">
-        <v>1.083364903162961</v>
+        <v>1.360037860425223</v>
       </c>
       <c r="P9">
-        <v>1.200910509790797</v>
+        <v>1.902683566709905</v>
       </c>
       <c r="Q9">
-        <v>1.200910509790797</v>
+        <v>1.902683566709905</v>
       </c>
       <c r="R9">
-        <v>1.227523802353421</v>
+        <v>2.053818062982633</v>
       </c>
       <c r="S9">
-        <v>1.227523802353421</v>
+        <v>2.053818062982633</v>
       </c>
       <c r="T9">
-        <v>1.12468104004226</v>
+        <v>1.564853517602109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.479663816692741</v>
+        <v>0.6156153762503686</v>
       </c>
       <c r="D10">
-        <v>0.769996965817621</v>
+        <v>0.4537905266280442</v>
       </c>
       <c r="E10">
-        <v>1.341285055356127</v>
+        <v>0.6156153762503686</v>
       </c>
       <c r="F10">
-        <v>1.479663816692741</v>
+        <v>0.4406646032204601</v>
       </c>
       <c r="G10">
-        <v>1.912494255677739</v>
+        <v>0.331338651671359</v>
       </c>
       <c r="H10">
-        <v>0.945412705994285</v>
+        <v>95.11843069406265</v>
       </c>
       <c r="I10">
-        <v>1.133246404979569</v>
+        <v>0.4406646032204601</v>
       </c>
       <c r="J10">
-        <v>0.769996965817621</v>
+        <v>0.4469846219698076</v>
       </c>
       <c r="K10">
-        <v>1.479663816692741</v>
+        <v>0.4406646032204601</v>
       </c>
       <c r="L10">
-        <v>1.341285055356127</v>
+        <v>0.4537905266280442</v>
       </c>
       <c r="M10">
-        <v>1.055641010586874</v>
+        <v>0.5347029514392063</v>
       </c>
       <c r="N10">
-        <v>1.055641010586874</v>
+        <v>0.5347029514392063</v>
       </c>
       <c r="O10">
-        <v>1.018898242389344</v>
+        <v>0.4669148515165906</v>
       </c>
       <c r="P10">
-        <v>1.196981945955496</v>
+        <v>0.5033568353662909</v>
       </c>
       <c r="Q10">
-        <v>1.196981945955496</v>
+        <v>0.5033568353662909</v>
       </c>
       <c r="R10">
-        <v>1.267652413639808</v>
+        <v>0.4876837773298333</v>
       </c>
       <c r="S10">
-        <v>1.267652413639808</v>
+        <v>0.4876837773298333</v>
       </c>
       <c r="T10">
-        <v>1.263683200753014</v>
+        <v>16.23447074563378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.827303623590034</v>
+        <v>1.278751379645793</v>
       </c>
       <c r="D11">
-        <v>0.9425682251966506</v>
+        <v>0.8110429933863176</v>
       </c>
       <c r="E11">
-        <v>1.851860809849362</v>
+        <v>1.278751379645793</v>
       </c>
       <c r="F11">
-        <v>1.827303623590034</v>
+        <v>2.233062872215432</v>
       </c>
       <c r="G11">
-        <v>1.907407520171893</v>
+        <v>0.9487888262735978</v>
       </c>
       <c r="H11">
-        <v>1.06741363070627</v>
+        <v>1.151973081604744</v>
       </c>
       <c r="I11">
-        <v>0.7384858256504598</v>
+        <v>2.233062872215432</v>
       </c>
       <c r="J11">
-        <v>0.9425682251966506</v>
+        <v>0.8623876325590315</v>
       </c>
       <c r="K11">
-        <v>1.827303623590034</v>
+        <v>2.233062872215432</v>
       </c>
       <c r="L11">
-        <v>1.851860809849362</v>
+        <v>0.8110429933863176</v>
       </c>
       <c r="M11">
-        <v>1.397214517523006</v>
+        <v>1.044897186516055</v>
       </c>
       <c r="N11">
-        <v>1.397214517523006</v>
+        <v>1.044897186516055</v>
       </c>
       <c r="O11">
-        <v>1.287280888584094</v>
+        <v>1.012861066435236</v>
       </c>
       <c r="P11">
-        <v>1.540577552878682</v>
+        <v>1.440952415082514</v>
       </c>
       <c r="Q11">
-        <v>1.540577552878682</v>
+        <v>1.440952415082514</v>
       </c>
       <c r="R11">
-        <v>1.61225907055652</v>
+        <v>1.638980029365744</v>
       </c>
       <c r="S11">
-        <v>1.61225907055652</v>
+        <v>1.638980029365744</v>
       </c>
       <c r="T11">
-        <v>1.389173272527445</v>
+        <v>1.214334464280819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.645276007539249</v>
+        <v>1.275814558928638</v>
       </c>
       <c r="D12">
-        <v>0.01007134106593362</v>
+        <v>1.036527720041685</v>
       </c>
       <c r="E12">
-        <v>0.3479958596716096</v>
+        <v>1.275814558928638</v>
       </c>
       <c r="F12">
-        <v>1.645276007539249</v>
+        <v>0.8674277740336791</v>
       </c>
       <c r="G12">
-        <v>0.00160000083500577</v>
+        <v>0.6085937672275676</v>
       </c>
       <c r="H12">
-        <v>1.138075822104208</v>
+        <v>15.03146817421332</v>
       </c>
       <c r="I12">
-        <v>1.244482298369298</v>
+        <v>0.8674277740336791</v>
       </c>
       <c r="J12">
-        <v>0.01007134106593362</v>
+        <v>0.8140460516741277</v>
       </c>
       <c r="K12">
-        <v>1.645276007539249</v>
+        <v>0.8674277740336791</v>
       </c>
       <c r="L12">
-        <v>0.3479958596716096</v>
+        <v>1.036527720041685</v>
       </c>
       <c r="M12">
-        <v>0.1790336003687716</v>
+        <v>1.156171139485162</v>
       </c>
       <c r="N12">
-        <v>0.1790336003687716</v>
+        <v>1.156171139485162</v>
       </c>
       <c r="O12">
-        <v>0.4987143409472503</v>
+        <v>0.9736453487326305</v>
       </c>
       <c r="P12">
-        <v>0.6677810694255975</v>
+        <v>1.059923351001334</v>
       </c>
       <c r="Q12">
-        <v>0.6677810694255975</v>
+        <v>1.059923351001334</v>
       </c>
       <c r="R12">
-        <v>0.9121548039540104</v>
+        <v>1.01179945675942</v>
       </c>
       <c r="S12">
-        <v>0.9121548039540104</v>
+        <v>1.01179945675942</v>
       </c>
       <c r="T12">
-        <v>0.7312502215975506</v>
+        <v>3.272313007686504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.928449050339549</v>
+        <v>2.158542178362125</v>
       </c>
       <c r="D13">
-        <v>1.650064962615382</v>
+        <v>0.8311819912816182</v>
       </c>
       <c r="E13">
-        <v>1.633576257107252</v>
+        <v>2.158542178362125</v>
       </c>
       <c r="F13">
-        <v>1.928449050339549</v>
+        <v>1.206750887200927</v>
       </c>
       <c r="G13">
-        <v>0.05656710915642415</v>
+        <v>0.9525701378968904</v>
       </c>
       <c r="H13">
-        <v>0.5302572272526757</v>
+        <v>0.5661137757980265</v>
       </c>
       <c r="I13">
-        <v>1.436277442811253</v>
+        <v>1.206750887200927</v>
       </c>
       <c r="J13">
-        <v>1.650064962615382</v>
+        <v>0.9695600640965482</v>
       </c>
       <c r="K13">
-        <v>1.928449050339549</v>
+        <v>1.206750887200927</v>
       </c>
       <c r="L13">
-        <v>1.633576257107252</v>
+        <v>0.8311819912816182</v>
       </c>
       <c r="M13">
-        <v>1.641820609861317</v>
+        <v>1.494862084821872</v>
       </c>
       <c r="N13">
-        <v>1.641820609861317</v>
+        <v>1.494862084821872</v>
       </c>
       <c r="O13">
-        <v>1.271299482325103</v>
+        <v>1.314098102513545</v>
       </c>
       <c r="P13">
-        <v>1.737363423354061</v>
+        <v>1.398825018948223</v>
       </c>
       <c r="Q13">
-        <v>1.737363423354061</v>
+        <v>1.398825018948224</v>
       </c>
       <c r="R13">
-        <v>1.785134830100433</v>
+        <v>1.350806486011399</v>
       </c>
       <c r="S13">
-        <v>1.785134830100433</v>
+        <v>1.350806486011399</v>
       </c>
       <c r="T13">
-        <v>1.205865341547089</v>
+        <v>1.114119839106023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9226275428907239</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="D14">
-        <v>0.00488268530308287</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="E14">
-        <v>0.01546791224300697</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="F14">
-        <v>0.9226275428907239</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="G14">
-        <v>0.002970357101030384</v>
+        <v>-0.004875324700000001</v>
       </c>
       <c r="H14">
-        <v>2.894535788288744</v>
+        <v>181.7141200000001</v>
       </c>
       <c r="I14">
-        <v>1.102646680729866</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="J14">
-        <v>0.00488268530308287</v>
+        <v>-0.002821837500000001</v>
       </c>
       <c r="K14">
-        <v>0.9226275428907239</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="L14">
-        <v>0.01546791224300697</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="M14">
-        <v>0.01017529877304492</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="N14">
-        <v>0.01017529877304492</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="O14">
-        <v>0.9716287952782782</v>
+        <v>-0.003034493900000007</v>
       </c>
       <c r="P14">
-        <v>0.3143260468122712</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="Q14">
-        <v>0.3143260468122712</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="R14">
-        <v>0.4664014208318844</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="S14">
-        <v>0.4664014208318844</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="T14">
-        <v>0.8238551610927424</v>
+        <v>30.28541289196669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.01097219575902145</v>
+        <v>-0.00097587773</v>
       </c>
       <c r="D15">
-        <v>3.589107571436648</v>
+        <v>60.563705</v>
       </c>
       <c r="E15">
-        <v>1.423443948246854</v>
+        <v>-0.00097587773</v>
       </c>
       <c r="F15">
-        <v>0.01097219575902145</v>
+        <v>-0.012240765</v>
       </c>
       <c r="G15">
-        <v>0.0605567227953113</v>
+        <v>0.005154779100000001</v>
       </c>
       <c r="H15">
-        <v>0.1778061872477397</v>
+        <v>-0.016142712</v>
       </c>
       <c r="I15">
-        <v>0.4681021409464109</v>
+        <v>-0.012240765</v>
       </c>
       <c r="J15">
-        <v>3.589107571436648</v>
+        <v>-0.00029011168</v>
       </c>
       <c r="K15">
-        <v>0.01097219575902145</v>
+        <v>-0.012240765</v>
       </c>
       <c r="L15">
-        <v>1.423443948246854</v>
+        <v>60.563705</v>
       </c>
       <c r="M15">
-        <v>2.506275759841751</v>
+        <v>30.281364561135</v>
       </c>
       <c r="N15">
-        <v>2.506275759841751</v>
+        <v>30.281364561135</v>
       </c>
       <c r="O15">
-        <v>1.730119235643747</v>
+        <v>20.18929463379</v>
       </c>
       <c r="P15">
-        <v>1.674507905147508</v>
+        <v>20.18349611909</v>
       </c>
       <c r="Q15">
-        <v>1.674507905147508</v>
+        <v>20.18349611909</v>
       </c>
       <c r="R15">
-        <v>1.258623977800386</v>
+        <v>15.1345618980675</v>
       </c>
       <c r="S15">
-        <v>1.258623977800386</v>
+        <v>15.1345618980675</v>
       </c>
       <c r="T15">
-        <v>0.9549981277386643</v>
+        <v>10.08986838544833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.159412145012587</v>
+        <v>0.00070900876</v>
       </c>
       <c r="D16">
-        <v>1.081848561585453</v>
+        <v>-0.012240955</v>
       </c>
       <c r="E16">
-        <v>0.9921280338358663</v>
+        <v>0.00070900876</v>
       </c>
       <c r="F16">
-        <v>1.159412145012587</v>
+        <v>121.14151</v>
       </c>
       <c r="G16">
-        <v>1.143355373221918</v>
+        <v>-0.001780275</v>
       </c>
       <c r="H16">
-        <v>0.9810645328144919</v>
+        <v>0.010282671</v>
       </c>
       <c r="I16">
-        <v>0.9385383063251902</v>
+        <v>121.14151</v>
       </c>
       <c r="J16">
-        <v>1.081848561585453</v>
+        <v>-0.006709153</v>
       </c>
       <c r="K16">
-        <v>1.159412145012587</v>
+        <v>121.14151</v>
       </c>
       <c r="L16">
-        <v>0.9921280338358663</v>
+        <v>-0.012240955</v>
       </c>
       <c r="M16">
-        <v>1.03698829771066</v>
+        <v>-0.00576597312</v>
       </c>
       <c r="N16">
-        <v>1.03698829771066</v>
+        <v>-0.00576597312</v>
       </c>
       <c r="O16">
-        <v>1.018347042745271</v>
+        <v>-0.00443740708</v>
       </c>
       <c r="P16">
-        <v>1.077796246811302</v>
+        <v>40.37665935125333</v>
       </c>
       <c r="Q16">
-        <v>1.077796246811302</v>
+        <v>40.37665935125333</v>
       </c>
       <c r="R16">
-        <v>1.098200221361623</v>
+        <v>60.56787201344</v>
       </c>
       <c r="S16">
-        <v>1.098200221361623</v>
+        <v>60.56787201344</v>
       </c>
       <c r="T16">
-        <v>1.049391158799251</v>
+        <v>20.18862854946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8810832456393974</v>
+        <v>3.7527193E-05</v>
       </c>
       <c r="D17">
-        <v>1.104687234289083</v>
+        <v>0.019832455</v>
       </c>
       <c r="E17">
-        <v>1.102914045232359</v>
+        <v>3.7527193E-05</v>
       </c>
       <c r="F17">
-        <v>0.8810832456393974</v>
+        <v>-0.0059192154</v>
       </c>
       <c r="G17">
-        <v>1.172521687033673</v>
+        <v>0.0016198652</v>
       </c>
       <c r="H17">
-        <v>0.9894330972085646</v>
+        <v>-0.00081235102</v>
       </c>
       <c r="I17">
-        <v>0.964612273311512</v>
+        <v>-0.0059192154</v>
       </c>
       <c r="J17">
-        <v>1.104687234289083</v>
+        <v>-0.0035237062</v>
       </c>
       <c r="K17">
-        <v>0.8810832456393974</v>
+        <v>-0.0059192154</v>
       </c>
       <c r="L17">
-        <v>1.102914045232359</v>
+        <v>0.019832455</v>
       </c>
       <c r="M17">
-        <v>1.103800639760721</v>
+        <v>0.0099349910965</v>
       </c>
       <c r="N17">
-        <v>1.103800639760721</v>
+        <v>0.0099349910965</v>
       </c>
       <c r="O17">
-        <v>1.065678125576669</v>
+        <v>0.007163282464333333</v>
       </c>
       <c r="P17">
-        <v>1.029561508386946</v>
+        <v>0.004650255597666666</v>
       </c>
       <c r="Q17">
-        <v>1.029561508386946</v>
+        <v>0.004650255597666666</v>
       </c>
       <c r="R17">
-        <v>0.9924419427000591</v>
+        <v>0.00200788784825</v>
       </c>
       <c r="S17">
-        <v>0.9924419427000591</v>
+        <v>0.00200788784825</v>
       </c>
       <c r="T17">
-        <v>1.035875263785765</v>
+        <v>0.001872429128833333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7339276296517867</v>
+        <v>0.007344033857123287</v>
       </c>
       <c r="D18">
-        <v>1.340030159116157</v>
+        <v>6.436479356673974</v>
       </c>
       <c r="E18">
-        <v>2.009424794230663</v>
+        <v>0.007344033857123287</v>
       </c>
       <c r="F18">
-        <v>0.7339276296517867</v>
+        <v>11.20690028538356</v>
       </c>
       <c r="G18">
-        <v>1.209154787623151</v>
+        <v>0.001576222587671234</v>
       </c>
       <c r="H18">
-        <v>1.034119068695151</v>
+        <v>0.008655752832876713</v>
       </c>
       <c r="I18">
-        <v>0.6316024566718869</v>
+        <v>11.20690028538356</v>
       </c>
       <c r="J18">
-        <v>1.340030159116157</v>
+        <v>5.435899101072878</v>
       </c>
       <c r="K18">
-        <v>0.7339276296517867</v>
+        <v>11.20690028538356</v>
       </c>
       <c r="L18">
-        <v>2.009424794230663</v>
+        <v>6.436479356673974</v>
       </c>
       <c r="M18">
-        <v>1.67472747667341</v>
+        <v>3.221911695265549</v>
       </c>
       <c r="N18">
-        <v>1.67472747667341</v>
+        <v>3.221911695265549</v>
       </c>
       <c r="O18">
-        <v>1.461191340680657</v>
+        <v>2.148466537706256</v>
       </c>
       <c r="P18">
-        <v>1.361127527666203</v>
+        <v>5.883574558638219</v>
       </c>
       <c r="Q18">
-        <v>1.361127527666203</v>
+        <v>5.883574558638219</v>
       </c>
       <c r="R18">
-        <v>1.204327553162599</v>
+        <v>7.214405990324554</v>
       </c>
       <c r="S18">
-        <v>1.204327553162599</v>
+        <v>7.214405990324554</v>
       </c>
       <c r="T18">
-        <v>1.159709815998133</v>
+        <v>3.849475792068013</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.693307272707933</v>
+        <v>0.0003942795869999995</v>
       </c>
       <c r="D19">
-        <v>0.2594084770452641</v>
+        <v>0.00168871777736842</v>
       </c>
       <c r="E19">
-        <v>0.4135223232392422</v>
+        <v>0.0003942795869999995</v>
       </c>
       <c r="F19">
-        <v>1.693307272707933</v>
+        <v>6.779364571310526</v>
       </c>
       <c r="G19">
-        <v>1.778489337290556</v>
+        <v>0.001046686680526316</v>
       </c>
       <c r="H19">
-        <v>1.371796989556987</v>
+        <v>10.16303202841579</v>
       </c>
       <c r="I19">
-        <v>1.528779413372385</v>
+        <v>6.779364571310526</v>
       </c>
       <c r="J19">
-        <v>0.2594084770452641</v>
+        <v>1.633355936931579</v>
       </c>
       <c r="K19">
-        <v>1.693307272707933</v>
+        <v>6.779364571310526</v>
       </c>
       <c r="L19">
-        <v>0.4135223232392422</v>
+        <v>0.00168871777736842</v>
       </c>
       <c r="M19">
-        <v>0.3364654001422531</v>
+        <v>0.00104149868218421</v>
       </c>
       <c r="N19">
-        <v>0.3364654001422531</v>
+        <v>0.00104149868218421</v>
       </c>
       <c r="O19">
-        <v>0.6815759299471642</v>
+        <v>0.001043228014964912</v>
       </c>
       <c r="P19">
-        <v>0.7887460243308132</v>
+        <v>2.260482522891631</v>
       </c>
       <c r="Q19">
-        <v>0.7887460243308131</v>
+        <v>2.260482522891631</v>
       </c>
       <c r="R19">
-        <v>1.014886336425093</v>
+        <v>3.390203034996355</v>
       </c>
       <c r="S19">
-        <v>1.014886336425093</v>
+        <v>3.390203034996355</v>
       </c>
       <c r="T19">
-        <v>1.174217302202061</v>
+        <v>3.096480370117133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>7.154118295693157</v>
+      </c>
+      <c r="D20">
+        <v>5.160627581366316</v>
+      </c>
+      <c r="E20">
+        <v>7.154118295693157</v>
+      </c>
+      <c r="F20">
+        <v>3.576956873611053</v>
+      </c>
+      <c r="G20">
+        <v>0.001693561868421053</v>
+      </c>
+      <c r="H20">
+        <v>15.48609909959527</v>
+      </c>
+      <c r="I20">
+        <v>3.576956873611053</v>
+      </c>
+      <c r="J20">
+        <v>-0.006934659375263157</v>
+      </c>
+      <c r="K20">
+        <v>3.576956873611053</v>
+      </c>
+      <c r="L20">
+        <v>5.160627581366316</v>
+      </c>
+      <c r="M20">
+        <v>6.157372938529736</v>
+      </c>
+      <c r="N20">
+        <v>6.157372938529736</v>
+      </c>
+      <c r="O20">
+        <v>4.105479812975965</v>
+      </c>
+      <c r="P20">
+        <v>5.297234250223508</v>
+      </c>
+      <c r="Q20">
+        <v>5.297234250223508</v>
+      </c>
+      <c r="R20">
+        <v>4.867164906070395</v>
+      </c>
+      <c r="S20">
+        <v>4.867164906070395</v>
+      </c>
+      <c r="T20">
+        <v>5.228760125459825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.004882685303082869</v>
+      </c>
+      <c r="D21">
+        <v>0.01546791224300691</v>
+      </c>
+      <c r="E21">
+        <v>0.004882685303082869</v>
+      </c>
+      <c r="F21">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="G21">
+        <v>2.894535788288745</v>
+      </c>
+      <c r="H21">
+        <v>0.002970357101030387</v>
+      </c>
+      <c r="I21">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="J21">
+        <v>1.102646680729866</v>
+      </c>
+      <c r="K21">
+        <v>0.922627542890721</v>
+      </c>
+      <c r="L21">
+        <v>0.01546791224300691</v>
+      </c>
+      <c r="M21">
+        <v>0.01017529877304489</v>
+      </c>
+      <c r="N21">
+        <v>0.01017529877304489</v>
+      </c>
+      <c r="O21">
+        <v>0.9716287952782783</v>
+      </c>
+      <c r="P21">
+        <v>0.3143260468122703</v>
+      </c>
+      <c r="Q21">
+        <v>0.3143260468122703</v>
+      </c>
+      <c r="R21">
+        <v>0.466401420831883</v>
+      </c>
+      <c r="S21">
+        <v>0.466401420831883</v>
+      </c>
+      <c r="T21">
+        <v>0.8238551610927421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>3.589107571436648</v>
+      </c>
+      <c r="D22">
+        <v>1.423443948246854</v>
+      </c>
+      <c r="E22">
+        <v>3.589107571436648</v>
+      </c>
+      <c r="F22">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="G22">
+        <v>0.1778061872477396</v>
+      </c>
+      <c r="H22">
+        <v>0.0605567227953113</v>
+      </c>
+      <c r="I22">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="J22">
+        <v>0.4681021409464109</v>
+      </c>
+      <c r="K22">
+        <v>0.01097219575902146</v>
+      </c>
+      <c r="L22">
+        <v>1.423443948246854</v>
+      </c>
+      <c r="M22">
+        <v>2.506275759841751</v>
+      </c>
+      <c r="N22">
+        <v>2.506275759841751</v>
+      </c>
+      <c r="O22">
+        <v>1.730119235643747</v>
+      </c>
+      <c r="P22">
+        <v>1.674507905147508</v>
+      </c>
+      <c r="Q22">
+        <v>1.674507905147508</v>
+      </c>
+      <c r="R22">
+        <v>1.258623977800386</v>
+      </c>
+      <c r="S22">
+        <v>1.258623977800386</v>
+      </c>
+      <c r="T22">
+        <v>0.9549981277386643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.0100713410659336</v>
+      </c>
+      <c r="D23">
+        <v>0.3479958596716068</v>
+      </c>
+      <c r="E23">
+        <v>0.0100713410659336</v>
+      </c>
+      <c r="F23">
+        <v>1.645276007539249</v>
+      </c>
+      <c r="G23">
+        <v>1.138075822104208</v>
+      </c>
+      <c r="H23">
+        <v>0.001600000835005771</v>
+      </c>
+      <c r="I23">
+        <v>1.645276007539249</v>
+      </c>
+      <c r="J23">
+        <v>1.244482298369297</v>
+      </c>
+      <c r="K23">
+        <v>1.645276007539249</v>
+      </c>
+      <c r="L23">
+        <v>0.3479958596716068</v>
+      </c>
+      <c r="M23">
+        <v>0.1790336003687702</v>
+      </c>
+      <c r="N23">
+        <v>0.1790336003687702</v>
+      </c>
+      <c r="O23">
+        <v>0.4987143409472495</v>
+      </c>
+      <c r="P23">
+        <v>0.6677810694255965</v>
+      </c>
+      <c r="Q23">
+        <v>0.6677810694255965</v>
+      </c>
+      <c r="R23">
+        <v>0.9121548039540095</v>
+      </c>
+      <c r="S23">
+        <v>0.9121548039540095</v>
+      </c>
+      <c r="T23">
+        <v>0.7312502215975499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.650064962615372</v>
+      </c>
+      <c r="D24">
+        <v>1.633576257107254</v>
+      </c>
+      <c r="E24">
+        <v>1.650064962615372</v>
+      </c>
+      <c r="F24">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="G24">
+        <v>0.5302572272526754</v>
+      </c>
+      <c r="H24">
+        <v>0.05656710915642411</v>
+      </c>
+      <c r="I24">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="J24">
+        <v>1.436277442811253</v>
+      </c>
+      <c r="K24">
+        <v>1.928449050339546</v>
+      </c>
+      <c r="L24">
+        <v>1.633576257107254</v>
+      </c>
+      <c r="M24">
+        <v>1.641820609861313</v>
+      </c>
+      <c r="N24">
+        <v>1.641820609861313</v>
+      </c>
+      <c r="O24">
+        <v>1.2712994823251</v>
+      </c>
+      <c r="P24">
+        <v>1.737363423354058</v>
+      </c>
+      <c r="Q24">
+        <v>1.737363423354058</v>
+      </c>
+      <c r="R24">
+        <v>1.78513483010043</v>
+      </c>
+      <c r="S24">
+        <v>1.78513483010043</v>
+      </c>
+      <c r="T24">
+        <v>1.205865341547087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.2716770031326848</v>
+      </c>
+      <c r="D25">
+        <v>0.9357684115615548</v>
+      </c>
+      <c r="E25">
+        <v>0.2716770031326848</v>
+      </c>
+      <c r="F25">
+        <v>-0.0005937626849366053</v>
+      </c>
+      <c r="G25">
+        <v>1.878512723247619</v>
+      </c>
+      <c r="H25">
+        <v>0.001578364062359895</v>
+      </c>
+      <c r="I25">
+        <v>-0.0005937626849366053</v>
+      </c>
+      <c r="J25">
+        <v>0.1463426715193503</v>
+      </c>
+      <c r="K25">
+        <v>-0.0005937626849366053</v>
+      </c>
+      <c r="L25">
+        <v>0.9357684115615548</v>
+      </c>
+      <c r="M25">
+        <v>0.6037227073471197</v>
+      </c>
+      <c r="N25">
+        <v>0.6037227073471197</v>
+      </c>
+      <c r="O25">
+        <v>1.028652712647286</v>
+      </c>
+      <c r="P25">
+        <v>0.4022838840031009</v>
+      </c>
+      <c r="Q25">
+        <v>0.4022838840031009</v>
+      </c>
+      <c r="R25">
+        <v>0.3015644723310916</v>
+      </c>
+      <c r="S25">
+        <v>0.3015644723310916</v>
+      </c>
+      <c r="T25">
+        <v>0.5388809018064387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1783202513003949</v>
+      </c>
+      <c r="D26">
+        <v>0.9767053098710359</v>
+      </c>
+      <c r="E26">
+        <v>0.1783202513003949</v>
+      </c>
+      <c r="F26">
+        <v>0.02654058730980222</v>
+      </c>
+      <c r="G26">
+        <v>1.424682262194795</v>
+      </c>
+      <c r="H26">
+        <v>0.07038654086099801</v>
+      </c>
+      <c r="I26">
+        <v>0.02654058730980222</v>
+      </c>
+      <c r="J26">
+        <v>0.1391928806612935</v>
+      </c>
+      <c r="K26">
+        <v>0.02654058730980222</v>
+      </c>
+      <c r="L26">
+        <v>0.9767053098710359</v>
+      </c>
+      <c r="M26">
+        <v>0.5775127805857154</v>
+      </c>
+      <c r="N26">
+        <v>0.5775127805857154</v>
+      </c>
+      <c r="O26">
+        <v>0.8599026077887418</v>
+      </c>
+      <c r="P26">
+        <v>0.3938553828270777</v>
+      </c>
+      <c r="Q26">
+        <v>0.3938553828270777</v>
+      </c>
+      <c r="R26">
+        <v>0.3020266839477588</v>
+      </c>
+      <c r="S26">
+        <v>0.3020266839477588</v>
+      </c>
+      <c r="T26">
+        <v>0.4693046386997198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.004695127923949609</v>
+      </c>
+      <c r="D27">
+        <v>0.002887265353108689</v>
+      </c>
+      <c r="E27">
+        <v>-0.004695127923949609</v>
+      </c>
+      <c r="F27">
+        <v>1.092942102754398</v>
+      </c>
+      <c r="G27">
+        <v>4.962101482618808</v>
+      </c>
+      <c r="H27">
+        <v>20.82194889704206</v>
+      </c>
+      <c r="I27">
+        <v>1.092942102754398</v>
+      </c>
+      <c r="J27">
+        <v>0.03556402554072228</v>
+      </c>
+      <c r="K27">
+        <v>1.092942102754398</v>
+      </c>
+      <c r="L27">
+        <v>0.002887265353108689</v>
+      </c>
+      <c r="M27">
+        <v>-0.00090393128542046</v>
+      </c>
+      <c r="N27">
+        <v>-0.00090393128542046</v>
+      </c>
+      <c r="O27">
+        <v>1.653431206682656</v>
+      </c>
+      <c r="P27">
+        <v>0.363711413394519</v>
+      </c>
+      <c r="Q27">
+        <v>0.363711413394519</v>
+      </c>
+      <c r="R27">
+        <v>0.5460190857344888</v>
+      </c>
+      <c r="S27">
+        <v>0.5460190857344888</v>
+      </c>
+      <c r="T27">
+        <v>4.485124774230858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.4768958952100064</v>
+      </c>
+      <c r="D28">
+        <v>-0.001223754443762684</v>
+      </c>
+      <c r="E28">
+        <v>0.4768958952100064</v>
+      </c>
+      <c r="F28">
+        <v>1.527166214937854</v>
+      </c>
+      <c r="G28">
+        <v>-0.0005988681285960854</v>
+      </c>
+      <c r="H28">
+        <v>0.4350583803396195</v>
+      </c>
+      <c r="I28">
+        <v>1.527166214937854</v>
+      </c>
+      <c r="J28">
+        <v>0.1566442395049712</v>
+      </c>
+      <c r="K28">
+        <v>1.527166214937854</v>
+      </c>
+      <c r="L28">
+        <v>-0.001223754443762684</v>
+      </c>
+      <c r="M28">
+        <v>0.2378360703831219</v>
+      </c>
+      <c r="N28">
+        <v>0.2378360703831219</v>
+      </c>
+      <c r="O28">
+        <v>0.1583577575458825</v>
+      </c>
+      <c r="P28">
+        <v>0.6676127852346995</v>
+      </c>
+      <c r="Q28">
+        <v>0.6676127852346995</v>
+      </c>
+      <c r="R28">
+        <v>0.8825011426604882</v>
+      </c>
+      <c r="S28">
+        <v>0.8825011426604882</v>
+      </c>
+      <c r="T28">
+        <v>0.4323236845700155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.008727974098890671</v>
+      </c>
+      <c r="D29">
+        <v>-0.01143797749729412</v>
+      </c>
+      <c r="E29">
+        <v>0.008727974098890671</v>
+      </c>
+      <c r="F29">
+        <v>3.445126965506369</v>
+      </c>
+      <c r="G29">
+        <v>0.0007172501482144425</v>
+      </c>
+      <c r="H29">
+        <v>-0.005525204935573085</v>
+      </c>
+      <c r="I29">
+        <v>3.445126965506369</v>
+      </c>
+      <c r="J29">
+        <v>-0.002644024967560861</v>
+      </c>
+      <c r="K29">
+        <v>3.445126965506369</v>
+      </c>
+      <c r="L29">
+        <v>-0.01143797749729412</v>
+      </c>
+      <c r="M29">
+        <v>-0.001355001699201725</v>
+      </c>
+      <c r="N29">
+        <v>-0.001355001699201725</v>
+      </c>
+      <c r="O29">
+        <v>-0.0006642510833963358</v>
+      </c>
+      <c r="P29">
+        <v>1.147472320702655</v>
+      </c>
+      <c r="Q29">
+        <v>1.147472320702655</v>
+      </c>
+      <c r="R29">
+        <v>1.721885981903584</v>
+      </c>
+      <c r="S29">
+        <v>1.721885981903584</v>
+      </c>
+      <c r="T29">
+        <v>0.5724941637255077</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9086233510424613</v>
+        <v>0.8283367552872641</v>
       </c>
       <c r="D4">
-        <v>0.8917741398767245</v>
+        <v>1.001216010162059</v>
       </c>
       <c r="E4">
-        <v>0.9086233510424613</v>
+        <v>0.8283367552872641</v>
       </c>
       <c r="F4">
-        <v>2.311027842977718</v>
+        <v>0.99627043678421</v>
       </c>
       <c r="G4">
-        <v>0.8371339077346209</v>
+        <v>0.7841120316578976</v>
       </c>
       <c r="H4">
-        <v>1.047063173779043</v>
+        <v>6.638415206496762</v>
       </c>
       <c r="I4">
-        <v>2.311027842977718</v>
+        <v>0.99627043678421</v>
       </c>
       <c r="J4">
-        <v>0.9516456628325004</v>
+        <v>0.9020052666944541</v>
       </c>
       <c r="K4">
-        <v>2.311027842977718</v>
+        <v>0.99627043678421</v>
       </c>
       <c r="L4">
-        <v>0.8917741398767245</v>
+        <v>1.001216010162059</v>
       </c>
       <c r="M4">
-        <v>0.9001987454595929</v>
+        <v>0.9147763827246616</v>
       </c>
       <c r="N4">
-        <v>0.9001987454595929</v>
+        <v>0.9147763827246616</v>
       </c>
       <c r="O4">
-        <v>0.8791771328846023</v>
+        <v>0.8712215990357403</v>
       </c>
       <c r="P4">
-        <v>1.370475111298968</v>
+        <v>0.9419410674111778</v>
       </c>
       <c r="Q4">
-        <v>1.370475111298968</v>
+        <v>0.9419410674111778</v>
       </c>
       <c r="R4">
-        <v>1.605613294218655</v>
+        <v>0.9555234097544358</v>
       </c>
       <c r="S4">
-        <v>1.605613294218655</v>
+        <v>0.9555234097544358</v>
       </c>
       <c r="T4">
-        <v>1.157878013040511</v>
+        <v>1.858392617847108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8735616781658915</v>
+        <v>7.914535209058613</v>
       </c>
       <c r="D5">
-        <v>1.175951333331117</v>
+        <v>4.197258233828492</v>
       </c>
       <c r="E5">
-        <v>0.8735616781658915</v>
+        <v>7.914535209058613</v>
       </c>
       <c r="F5">
-        <v>1.219600141526366</v>
+        <v>3.950493191603538</v>
       </c>
       <c r="G5">
-        <v>0.7337263429781762</v>
+        <v>0.001963189948349506</v>
       </c>
       <c r="H5">
-        <v>10.87289321638412</v>
+        <v>6.934003087243583</v>
       </c>
       <c r="I5">
-        <v>1.219600141526366</v>
+        <v>3.950493191603538</v>
       </c>
       <c r="J5">
-        <v>1.007534560647574</v>
+        <v>-0.007159954549942469</v>
       </c>
       <c r="K5">
-        <v>1.219600141526366</v>
+        <v>3.950493191603538</v>
       </c>
       <c r="L5">
-        <v>1.175951333331117</v>
+        <v>4.197258233828492</v>
       </c>
       <c r="M5">
-        <v>1.024756505748504</v>
+        <v>6.055896721443553</v>
       </c>
       <c r="N5">
-        <v>1.024756505748504</v>
+        <v>6.055896721443553</v>
       </c>
       <c r="O5">
-        <v>0.9277464514917281</v>
+        <v>4.037918877611818</v>
       </c>
       <c r="P5">
-        <v>1.089704384341124</v>
+        <v>5.354095544830215</v>
       </c>
       <c r="Q5">
-        <v>1.089704384341124</v>
+        <v>5.354095544830215</v>
       </c>
       <c r="R5">
-        <v>1.122178323637435</v>
+        <v>5.003194956523545</v>
       </c>
       <c r="S5">
-        <v>1.122178323637435</v>
+        <v>5.003194956523545</v>
       </c>
       <c r="T5">
-        <v>2.647211212172208</v>
+        <v>3.831848826188772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4034609188848104</v>
+        <v>0.9086233510424613</v>
       </c>
       <c r="D6">
-        <v>0.5007026073312393</v>
+        <v>0.8917741398767245</v>
       </c>
       <c r="E6">
-        <v>0.4034609188848104</v>
+        <v>0.9086233510424613</v>
       </c>
       <c r="F6">
-        <v>0.4925081373364963</v>
+        <v>2.311027842977718</v>
       </c>
       <c r="G6">
-        <v>0.3908743194575962</v>
+        <v>0.8371339077346209</v>
       </c>
       <c r="H6">
-        <v>93.99212809671255</v>
+        <v>1.047063173779043</v>
       </c>
       <c r="I6">
-        <v>0.4925081373364963</v>
+        <v>2.311027842977718</v>
       </c>
       <c r="J6">
-        <v>0.4611644477194979</v>
+        <v>0.9516456628325004</v>
       </c>
       <c r="K6">
-        <v>0.4925081373364963</v>
+        <v>2.311027842977718</v>
       </c>
       <c r="L6">
-        <v>0.5007026073312393</v>
+        <v>0.8917741398767245</v>
       </c>
       <c r="M6">
-        <v>0.4520817631080248</v>
+        <v>0.9001987454595929</v>
       </c>
       <c r="N6">
-        <v>0.4520817631080248</v>
+        <v>0.9001987454595929</v>
       </c>
       <c r="O6">
-        <v>0.4316792818912153</v>
+        <v>0.8791771328846023</v>
       </c>
       <c r="P6">
-        <v>0.465557221184182</v>
+        <v>1.370475111298968</v>
       </c>
       <c r="Q6">
-        <v>0.465557221184182</v>
+        <v>1.370475111298968</v>
       </c>
       <c r="R6">
-        <v>0.4722949502222606</v>
+        <v>1.605613294218655</v>
       </c>
       <c r="S6">
-        <v>0.4722949502222606</v>
+        <v>1.605613294218655</v>
       </c>
       <c r="T6">
-        <v>16.0401397545737</v>
+        <v>1.157878013040511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.019355739748598</v>
+        <v>0.8735616781658915</v>
       </c>
       <c r="D7">
-        <v>1.251599015655396</v>
+        <v>1.175951333331117</v>
       </c>
       <c r="E7">
-        <v>1.019355739748598</v>
+        <v>0.8735616781658915</v>
       </c>
       <c r="F7">
-        <v>1.576741730780916</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="G7">
-        <v>0.925743738702426</v>
+        <v>0.7337263429781762</v>
       </c>
       <c r="H7">
-        <v>1.077154153520366</v>
+        <v>10.87289321638412</v>
       </c>
       <c r="I7">
-        <v>1.576741730780916</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="J7">
-        <v>1.164496685071857</v>
+        <v>1.007534560647574</v>
       </c>
       <c r="K7">
-        <v>1.576741730780916</v>
+        <v>1.219600141526366</v>
       </c>
       <c r="L7">
-        <v>1.251599015655396</v>
+        <v>1.175951333331117</v>
       </c>
       <c r="M7">
-        <v>1.135477377701997</v>
+        <v>1.024756505748504</v>
       </c>
       <c r="N7">
-        <v>1.135477377701997</v>
+        <v>1.024756505748504</v>
       </c>
       <c r="O7">
-        <v>1.06556616470214</v>
+        <v>0.9277464514917281</v>
       </c>
       <c r="P7">
-        <v>1.28256549539497</v>
+        <v>1.089704384341124</v>
       </c>
       <c r="Q7">
-        <v>1.28256549539497</v>
+        <v>1.089704384341124</v>
       </c>
       <c r="R7">
-        <v>1.356109554241456</v>
+        <v>1.122178323637435</v>
       </c>
       <c r="S7">
-        <v>1.356109554241456</v>
+        <v>1.122178323637435</v>
       </c>
       <c r="T7">
-        <v>1.16918184391326</v>
+        <v>2.647211212172208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.104687234289082</v>
+        <v>0.4034609188848104</v>
       </c>
       <c r="D8">
-        <v>1.102914045232361</v>
+        <v>0.5007026073312393</v>
       </c>
       <c r="E8">
-        <v>1.104687234289082</v>
+        <v>0.4034609188848104</v>
       </c>
       <c r="F8">
-        <v>0.881083245639403</v>
+        <v>0.4925081373364963</v>
       </c>
       <c r="G8">
-        <v>0.9894330972085649</v>
+        <v>0.3908743194575962</v>
       </c>
       <c r="H8">
-        <v>1.172521687033672</v>
+        <v>93.99212809671255</v>
       </c>
       <c r="I8">
-        <v>0.881083245639403</v>
+        <v>0.4925081373364963</v>
       </c>
       <c r="J8">
-        <v>0.9646122733115143</v>
+        <v>0.4611644477194979</v>
       </c>
       <c r="K8">
-        <v>0.881083245639403</v>
+        <v>0.4925081373364963</v>
       </c>
       <c r="L8">
-        <v>1.102914045232361</v>
+        <v>0.5007026073312393</v>
       </c>
       <c r="M8">
-        <v>1.103800639760721</v>
+        <v>0.4520817631080248</v>
       </c>
       <c r="N8">
-        <v>1.103800639760721</v>
+        <v>0.4520817631080248</v>
       </c>
       <c r="O8">
-        <v>1.065678125576669</v>
+        <v>0.4316792818912153</v>
       </c>
       <c r="P8">
-        <v>1.029561508386948</v>
+        <v>0.465557221184182</v>
       </c>
       <c r="Q8">
-        <v>1.029561508386949</v>
+        <v>0.465557221184182</v>
       </c>
       <c r="R8">
-        <v>0.9924419427000623</v>
+        <v>0.4722949502222606</v>
       </c>
       <c r="S8">
-        <v>0.9924419427000623</v>
+        <v>0.4722949502222606</v>
       </c>
       <c r="T8">
-        <v>1.035875263785766</v>
+        <v>16.0401397545737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.479773334251186</v>
+        <v>1.019355739748598</v>
       </c>
       <c r="D9">
-        <v>1.721055814077713</v>
+        <v>1.251599015655396</v>
       </c>
       <c r="E9">
-        <v>1.479773334251186</v>
+        <v>1.019355739748598</v>
       </c>
       <c r="F9">
-        <v>2.507221551800816</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="G9">
-        <v>0.8792844329467681</v>
+        <v>0.925743738702426</v>
       </c>
       <c r="H9">
-        <v>1.298376438201873</v>
+        <v>1.077154153520366</v>
       </c>
       <c r="I9">
-        <v>2.507221551800816</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="J9">
-        <v>1.503409534334297</v>
+        <v>1.164496685071857</v>
       </c>
       <c r="K9">
-        <v>2.507221551800816</v>
+        <v>1.576741730780916</v>
       </c>
       <c r="L9">
-        <v>1.721055814077713</v>
+        <v>1.251599015655396</v>
       </c>
       <c r="M9">
-        <v>1.60041457416445</v>
+        <v>1.135477377701997</v>
       </c>
       <c r="N9">
-        <v>1.60041457416445</v>
+        <v>1.135477377701997</v>
       </c>
       <c r="O9">
-        <v>1.360037860425223</v>
+        <v>1.06556616470214</v>
       </c>
       <c r="P9">
-        <v>1.902683566709905</v>
+        <v>1.28256549539497</v>
       </c>
       <c r="Q9">
-        <v>1.902683566709905</v>
+        <v>1.28256549539497</v>
       </c>
       <c r="R9">
-        <v>2.053818062982633</v>
+        <v>1.356109554241456</v>
       </c>
       <c r="S9">
-        <v>2.053818062982633</v>
+        <v>1.356109554241456</v>
       </c>
       <c r="T9">
-        <v>1.564853517602109</v>
+        <v>1.16918184391326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6156153762503686</v>
+        <v>1.104687234289082</v>
       </c>
       <c r="D10">
-        <v>0.4537905266280442</v>
+        <v>1.102914045232361</v>
       </c>
       <c r="E10">
-        <v>0.6156153762503686</v>
+        <v>1.104687234289082</v>
       </c>
       <c r="F10">
-        <v>0.4406646032204601</v>
+        <v>0.881083245639403</v>
       </c>
       <c r="G10">
-        <v>0.331338651671359</v>
+        <v>0.9894330972085649</v>
       </c>
       <c r="H10">
-        <v>95.11843069406265</v>
+        <v>1.172521687033672</v>
       </c>
       <c r="I10">
-        <v>0.4406646032204601</v>
+        <v>0.881083245639403</v>
       </c>
       <c r="J10">
-        <v>0.4469846219698076</v>
+        <v>0.9646122733115143</v>
       </c>
       <c r="K10">
-        <v>0.4406646032204601</v>
+        <v>0.881083245639403</v>
       </c>
       <c r="L10">
-        <v>0.4537905266280442</v>
+        <v>1.102914045232361</v>
       </c>
       <c r="M10">
-        <v>0.5347029514392063</v>
+        <v>1.103800639760721</v>
       </c>
       <c r="N10">
-        <v>0.5347029514392063</v>
+        <v>1.103800639760721</v>
       </c>
       <c r="O10">
-        <v>0.4669148515165906</v>
+        <v>1.065678125576669</v>
       </c>
       <c r="P10">
-        <v>0.5033568353662909</v>
+        <v>1.029561508386948</v>
       </c>
       <c r="Q10">
-        <v>0.5033568353662909</v>
+        <v>1.029561508386949</v>
       </c>
       <c r="R10">
-        <v>0.4876837773298333</v>
+        <v>0.9924419427000623</v>
       </c>
       <c r="S10">
-        <v>0.4876837773298333</v>
+        <v>0.9924419427000623</v>
       </c>
       <c r="T10">
-        <v>16.23447074563378</v>
+        <v>1.035875263785766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.278751379645793</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="D11">
-        <v>0.8110429933863176</v>
+        <v>1.721055814077713</v>
       </c>
       <c r="E11">
-        <v>1.278751379645793</v>
+        <v>1.479773334251186</v>
       </c>
       <c r="F11">
-        <v>2.233062872215432</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="G11">
-        <v>0.9487888262735978</v>
+        <v>0.8792844329467681</v>
       </c>
       <c r="H11">
-        <v>1.151973081604744</v>
+        <v>1.298376438201873</v>
       </c>
       <c r="I11">
-        <v>2.233062872215432</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="J11">
-        <v>0.8623876325590315</v>
+        <v>1.503409534334297</v>
       </c>
       <c r="K11">
-        <v>2.233062872215432</v>
+        <v>2.507221551800816</v>
       </c>
       <c r="L11">
-        <v>0.8110429933863176</v>
+        <v>1.721055814077713</v>
       </c>
       <c r="M11">
-        <v>1.044897186516055</v>
+        <v>1.60041457416445</v>
       </c>
       <c r="N11">
-        <v>1.044897186516055</v>
+        <v>1.60041457416445</v>
       </c>
       <c r="O11">
-        <v>1.012861066435236</v>
+        <v>1.360037860425223</v>
       </c>
       <c r="P11">
-        <v>1.440952415082514</v>
+        <v>1.902683566709905</v>
       </c>
       <c r="Q11">
-        <v>1.440952415082514</v>
+        <v>1.902683566709905</v>
       </c>
       <c r="R11">
-        <v>1.638980029365744</v>
+        <v>2.053818062982633</v>
       </c>
       <c r="S11">
-        <v>1.638980029365744</v>
+        <v>2.053818062982633</v>
       </c>
       <c r="T11">
-        <v>1.214334464280819</v>
+        <v>1.564853517602109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.275814558928638</v>
+        <v>0.6156153762503686</v>
       </c>
       <c r="D12">
-        <v>1.036527720041685</v>
+        <v>0.4537905266280442</v>
       </c>
       <c r="E12">
-        <v>1.275814558928638</v>
+        <v>0.6156153762503686</v>
       </c>
       <c r="F12">
-        <v>0.8674277740336791</v>
+        <v>0.4406646032204601</v>
       </c>
       <c r="G12">
-        <v>0.6085937672275676</v>
+        <v>0.331338651671359</v>
       </c>
       <c r="H12">
-        <v>15.03146817421332</v>
+        <v>95.11843069406265</v>
       </c>
       <c r="I12">
-        <v>0.8674277740336791</v>
+        <v>0.4406646032204601</v>
       </c>
       <c r="J12">
-        <v>0.8140460516741277</v>
+        <v>0.4469846219698076</v>
       </c>
       <c r="K12">
-        <v>0.8674277740336791</v>
+        <v>0.4406646032204601</v>
       </c>
       <c r="L12">
-        <v>1.036527720041685</v>
+        <v>0.4537905266280442</v>
       </c>
       <c r="M12">
-        <v>1.156171139485162</v>
+        <v>0.5347029514392063</v>
       </c>
       <c r="N12">
-        <v>1.156171139485162</v>
+        <v>0.5347029514392063</v>
       </c>
       <c r="O12">
-        <v>0.9736453487326305</v>
+        <v>0.4669148515165906</v>
       </c>
       <c r="P12">
-        <v>1.059923351001334</v>
+        <v>0.5033568353662909</v>
       </c>
       <c r="Q12">
-        <v>1.059923351001334</v>
+        <v>0.5033568353662909</v>
       </c>
       <c r="R12">
-        <v>1.01179945675942</v>
+        <v>0.4876837773298333</v>
       </c>
       <c r="S12">
-        <v>1.01179945675942</v>
+        <v>0.4876837773298333</v>
       </c>
       <c r="T12">
-        <v>3.272313007686504</v>
+        <v>16.23447074563378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.158542178362125</v>
+        <v>1.278751379645793</v>
       </c>
       <c r="D13">
-        <v>0.8311819912816182</v>
+        <v>0.8110429933863176</v>
       </c>
       <c r="E13">
-        <v>2.158542178362125</v>
+        <v>1.278751379645793</v>
       </c>
       <c r="F13">
-        <v>1.206750887200927</v>
+        <v>2.233062872215432</v>
       </c>
       <c r="G13">
-        <v>0.9525701378968904</v>
+        <v>0.9487888262735978</v>
       </c>
       <c r="H13">
-        <v>0.5661137757980265</v>
+        <v>1.151973081604744</v>
       </c>
       <c r="I13">
-        <v>1.206750887200927</v>
+        <v>2.233062872215432</v>
       </c>
       <c r="J13">
-        <v>0.9695600640965482</v>
+        <v>0.8623876325590315</v>
       </c>
       <c r="K13">
-        <v>1.206750887200927</v>
+        <v>2.233062872215432</v>
       </c>
       <c r="L13">
-        <v>0.8311819912816182</v>
+        <v>0.8110429933863176</v>
       </c>
       <c r="M13">
-        <v>1.494862084821872</v>
+        <v>1.044897186516055</v>
       </c>
       <c r="N13">
-        <v>1.494862084821872</v>
+        <v>1.044897186516055</v>
       </c>
       <c r="O13">
-        <v>1.314098102513545</v>
+        <v>1.012861066435236</v>
       </c>
       <c r="P13">
-        <v>1.398825018948223</v>
+        <v>1.440952415082514</v>
       </c>
       <c r="Q13">
-        <v>1.398825018948224</v>
+        <v>1.440952415082514</v>
       </c>
       <c r="R13">
-        <v>1.350806486011399</v>
+        <v>1.638980029365744</v>
       </c>
       <c r="S13">
-        <v>1.350806486011399</v>
+        <v>1.638980029365744</v>
       </c>
       <c r="T13">
-        <v>1.114119839106023</v>
+        <v>1.214334464280819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.01191020399999999</v>
+        <v>1.275814558928638</v>
       </c>
       <c r="D14">
-        <v>-0.01613836100000001</v>
+        <v>1.036527720041685</v>
       </c>
       <c r="E14">
-        <v>0.01191020399999999</v>
+        <v>1.275814558928638</v>
       </c>
       <c r="F14">
-        <v>0.01028267100000001</v>
+        <v>0.8674277740336791</v>
       </c>
       <c r="G14">
-        <v>-0.004875324700000001</v>
+        <v>0.6085937672275676</v>
       </c>
       <c r="H14">
-        <v>181.7141200000001</v>
+        <v>15.03146817421332</v>
       </c>
       <c r="I14">
-        <v>0.01028267100000001</v>
+        <v>0.8674277740336791</v>
       </c>
       <c r="J14">
-        <v>-0.002821837500000001</v>
+        <v>0.8140460516741277</v>
       </c>
       <c r="K14">
-        <v>0.01028267100000001</v>
+        <v>0.8674277740336791</v>
       </c>
       <c r="L14">
-        <v>-0.01613836100000001</v>
+        <v>1.036527720041685</v>
       </c>
       <c r="M14">
-        <v>-0.00211407850000001</v>
+        <v>1.156171139485162</v>
       </c>
       <c r="N14">
-        <v>-0.00211407850000001</v>
+        <v>1.156171139485162</v>
       </c>
       <c r="O14">
-        <v>-0.003034493900000007</v>
+        <v>0.9736453487326305</v>
       </c>
       <c r="P14">
-        <v>0.002018171333333331</v>
+        <v>1.059923351001334</v>
       </c>
       <c r="Q14">
-        <v>0.002018171333333331</v>
+        <v>1.059923351001334</v>
       </c>
       <c r="R14">
-        <v>0.004084296250000001</v>
+        <v>1.01179945675942</v>
       </c>
       <c r="S14">
-        <v>0.004084296250000001</v>
+        <v>1.01179945675942</v>
       </c>
       <c r="T14">
-        <v>30.28541289196669</v>
+        <v>3.272313007686504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.00097587773</v>
+        <v>2.158542178362125</v>
       </c>
       <c r="D15">
-        <v>60.563705</v>
+        <v>0.8311819912816182</v>
       </c>
       <c r="E15">
-        <v>-0.00097587773</v>
+        <v>2.158542178362125</v>
       </c>
       <c r="F15">
-        <v>-0.012240765</v>
+        <v>1.206750887200927</v>
       </c>
       <c r="G15">
-        <v>0.005154779100000001</v>
+        <v>0.9525701378968904</v>
       </c>
       <c r="H15">
-        <v>-0.016142712</v>
+        <v>0.5661137757980265</v>
       </c>
       <c r="I15">
-        <v>-0.012240765</v>
+        <v>1.206750887200927</v>
       </c>
       <c r="J15">
-        <v>-0.00029011168</v>
+        <v>0.9695600640965482</v>
       </c>
       <c r="K15">
-        <v>-0.012240765</v>
+        <v>1.206750887200927</v>
       </c>
       <c r="L15">
-        <v>60.563705</v>
+        <v>0.8311819912816182</v>
       </c>
       <c r="M15">
-        <v>30.281364561135</v>
+        <v>1.494862084821872</v>
       </c>
       <c r="N15">
-        <v>30.281364561135</v>
+        <v>1.494862084821872</v>
       </c>
       <c r="O15">
-        <v>20.18929463379</v>
+        <v>1.314098102513545</v>
       </c>
       <c r="P15">
-        <v>20.18349611909</v>
+        <v>1.398825018948223</v>
       </c>
       <c r="Q15">
-        <v>20.18349611909</v>
+        <v>1.398825018948224</v>
       </c>
       <c r="R15">
-        <v>15.1345618980675</v>
+        <v>1.350806486011399</v>
       </c>
       <c r="S15">
-        <v>15.1345618980675</v>
+        <v>1.350806486011399</v>
       </c>
       <c r="T15">
-        <v>10.08986838544833</v>
+        <v>1.114119839106023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.00070900876</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="D16">
-        <v>-0.012240955</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="E16">
-        <v>0.00070900876</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="F16">
-        <v>121.14151</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="G16">
-        <v>-0.001780275</v>
+        <v>-0.004875324700000001</v>
       </c>
       <c r="H16">
-        <v>0.010282671</v>
+        <v>181.7141200000001</v>
       </c>
       <c r="I16">
-        <v>121.14151</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="J16">
-        <v>-0.006709153</v>
+        <v>-0.002821837500000001</v>
       </c>
       <c r="K16">
-        <v>121.14151</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="L16">
-        <v>-0.012240955</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="M16">
-        <v>-0.00576597312</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="N16">
-        <v>-0.00576597312</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="O16">
-        <v>-0.00443740708</v>
+        <v>-0.003034493900000007</v>
       </c>
       <c r="P16">
-        <v>40.37665935125333</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="Q16">
-        <v>40.37665935125333</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="R16">
-        <v>60.56787201344</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="S16">
-        <v>60.56787201344</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="T16">
-        <v>20.18862854946</v>
+        <v>30.28541289196669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.7527193E-05</v>
+        <v>-0.00097587773</v>
       </c>
       <c r="D17">
-        <v>0.019832455</v>
+        <v>60.563705</v>
       </c>
       <c r="E17">
-        <v>3.7527193E-05</v>
+        <v>-0.00097587773</v>
       </c>
       <c r="F17">
-        <v>-0.0059192154</v>
+        <v>-0.012240765</v>
       </c>
       <c r="G17">
-        <v>0.0016198652</v>
+        <v>0.005154779100000001</v>
       </c>
       <c r="H17">
-        <v>-0.00081235102</v>
+        <v>-0.016142712</v>
       </c>
       <c r="I17">
-        <v>-0.0059192154</v>
+        <v>-0.012240765</v>
       </c>
       <c r="J17">
-        <v>-0.0035237062</v>
+        <v>-0.00029011168</v>
       </c>
       <c r="K17">
-        <v>-0.0059192154</v>
+        <v>-0.012240765</v>
       </c>
       <c r="L17">
-        <v>0.019832455</v>
+        <v>60.563705</v>
       </c>
       <c r="M17">
-        <v>0.0099349910965</v>
+        <v>30.281364561135</v>
       </c>
       <c r="N17">
-        <v>0.0099349910965</v>
+        <v>30.281364561135</v>
       </c>
       <c r="O17">
-        <v>0.007163282464333333</v>
+        <v>20.18929463379</v>
       </c>
       <c r="P17">
-        <v>0.004650255597666666</v>
+        <v>20.18349611909</v>
       </c>
       <c r="Q17">
-        <v>0.004650255597666666</v>
+        <v>20.18349611909</v>
       </c>
       <c r="R17">
-        <v>0.00200788784825</v>
+        <v>15.1345618980675</v>
       </c>
       <c r="S17">
-        <v>0.00200788784825</v>
+        <v>15.1345618980675</v>
       </c>
       <c r="T17">
-        <v>0.001872429128833333</v>
+        <v>10.08986838544833</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.007344033857123287</v>
+        <v>0.00070900876</v>
       </c>
       <c r="D18">
-        <v>6.436479356673974</v>
+        <v>-0.012240955</v>
       </c>
       <c r="E18">
-        <v>0.007344033857123287</v>
+        <v>0.00070900876</v>
       </c>
       <c r="F18">
-        <v>11.20690028538356</v>
+        <v>121.14151</v>
       </c>
       <c r="G18">
-        <v>0.001576222587671234</v>
+        <v>-0.001780275</v>
       </c>
       <c r="H18">
-        <v>0.008655752832876713</v>
+        <v>0.010282671</v>
       </c>
       <c r="I18">
-        <v>11.20690028538356</v>
+        <v>121.14151</v>
       </c>
       <c r="J18">
-        <v>5.435899101072878</v>
+        <v>-0.006709153</v>
       </c>
       <c r="K18">
-        <v>11.20690028538356</v>
+        <v>121.14151</v>
       </c>
       <c r="L18">
-        <v>6.436479356673974</v>
+        <v>-0.012240955</v>
       </c>
       <c r="M18">
-        <v>3.221911695265549</v>
+        <v>-0.00576597312</v>
       </c>
       <c r="N18">
-        <v>3.221911695265549</v>
+        <v>-0.00576597312</v>
       </c>
       <c r="O18">
-        <v>2.148466537706256</v>
+        <v>-0.00443740708</v>
       </c>
       <c r="P18">
-        <v>5.883574558638219</v>
+        <v>40.37665935125333</v>
       </c>
       <c r="Q18">
-        <v>5.883574558638219</v>
+        <v>40.37665935125333</v>
       </c>
       <c r="R18">
-        <v>7.214405990324554</v>
+        <v>60.56787201344</v>
       </c>
       <c r="S18">
-        <v>7.214405990324554</v>
+        <v>60.56787201344</v>
       </c>
       <c r="T18">
-        <v>3.849475792068013</v>
+        <v>20.18862854946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.0003942795869999995</v>
+        <v>3.7527193E-05</v>
       </c>
       <c r="D19">
-        <v>0.00168871777736842</v>
+        <v>0.019832455</v>
       </c>
       <c r="E19">
-        <v>0.0003942795869999995</v>
+        <v>3.7527193E-05</v>
       </c>
       <c r="F19">
-        <v>6.779364571310526</v>
+        <v>-0.0059192154</v>
       </c>
       <c r="G19">
-        <v>0.001046686680526316</v>
+        <v>0.0016198652</v>
       </c>
       <c r="H19">
-        <v>10.16303202841579</v>
+        <v>-0.00081235102</v>
       </c>
       <c r="I19">
-        <v>6.779364571310526</v>
+        <v>-0.0059192154</v>
       </c>
       <c r="J19">
-        <v>1.633355936931579</v>
+        <v>-0.0035237062</v>
       </c>
       <c r="K19">
-        <v>6.779364571310526</v>
+        <v>-0.0059192154</v>
       </c>
       <c r="L19">
-        <v>0.00168871777736842</v>
+        <v>0.019832455</v>
       </c>
       <c r="M19">
-        <v>0.00104149868218421</v>
+        <v>0.0099349910965</v>
       </c>
       <c r="N19">
-        <v>0.00104149868218421</v>
+        <v>0.0099349910965</v>
       </c>
       <c r="O19">
-        <v>0.001043228014964912</v>
+        <v>0.007163282464333333</v>
       </c>
       <c r="P19">
-        <v>2.260482522891631</v>
+        <v>0.004650255597666666</v>
       </c>
       <c r="Q19">
-        <v>2.260482522891631</v>
+        <v>0.004650255597666666</v>
       </c>
       <c r="R19">
-        <v>3.390203034996355</v>
+        <v>0.00200788784825</v>
       </c>
       <c r="S19">
-        <v>3.390203034996355</v>
+        <v>0.00200788784825</v>
       </c>
       <c r="T19">
-        <v>3.096480370117133</v>
+        <v>0.001872429128833333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.154118295693157</v>
+        <v>0.007344033857123287</v>
       </c>
       <c r="D20">
-        <v>5.160627581366316</v>
+        <v>6.436479356673974</v>
       </c>
       <c r="E20">
-        <v>7.154118295693157</v>
+        <v>0.007344033857123287</v>
       </c>
       <c r="F20">
-        <v>3.576956873611053</v>
+        <v>11.20690028538356</v>
       </c>
       <c r="G20">
-        <v>0.001693561868421053</v>
+        <v>0.001576222587671234</v>
       </c>
       <c r="H20">
-        <v>15.48609909959527</v>
+        <v>0.008655752832876713</v>
       </c>
       <c r="I20">
-        <v>3.576956873611053</v>
+        <v>11.20690028538356</v>
       </c>
       <c r="J20">
-        <v>-0.006934659375263157</v>
+        <v>5.435899101072878</v>
       </c>
       <c r="K20">
-        <v>3.576956873611053</v>
+        <v>11.20690028538356</v>
       </c>
       <c r="L20">
-        <v>5.160627581366316</v>
+        <v>6.436479356673974</v>
       </c>
       <c r="M20">
-        <v>6.157372938529736</v>
+        <v>3.221911695265549</v>
       </c>
       <c r="N20">
-        <v>6.157372938529736</v>
+        <v>3.221911695265549</v>
       </c>
       <c r="O20">
-        <v>4.105479812975965</v>
+        <v>2.148466537706256</v>
       </c>
       <c r="P20">
-        <v>5.297234250223508</v>
+        <v>5.883574558638219</v>
       </c>
       <c r="Q20">
-        <v>5.297234250223508</v>
+        <v>5.883574558638219</v>
       </c>
       <c r="R20">
-        <v>4.867164906070395</v>
+        <v>7.214405990324554</v>
       </c>
       <c r="S20">
-        <v>4.867164906070395</v>
+        <v>7.214405990324554</v>
       </c>
       <c r="T20">
-        <v>5.228760125459825</v>
+        <v>3.849475792068013</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.004882685303082869</v>
+        <v>0.0003942795869999995</v>
       </c>
       <c r="D21">
-        <v>0.01546791224300691</v>
+        <v>0.00168871777736842</v>
       </c>
       <c r="E21">
-        <v>0.004882685303082869</v>
+        <v>0.0003942795869999995</v>
       </c>
       <c r="F21">
-        <v>0.922627542890721</v>
+        <v>6.779364571310526</v>
       </c>
       <c r="G21">
-        <v>2.894535788288745</v>
+        <v>0.001046686680526316</v>
       </c>
       <c r="H21">
-        <v>0.002970357101030387</v>
+        <v>10.16303202841579</v>
       </c>
       <c r="I21">
-        <v>0.922627542890721</v>
+        <v>6.779364571310526</v>
       </c>
       <c r="J21">
-        <v>1.102646680729866</v>
+        <v>1.633355936931579</v>
       </c>
       <c r="K21">
-        <v>0.922627542890721</v>
+        <v>6.779364571310526</v>
       </c>
       <c r="L21">
-        <v>0.01546791224300691</v>
+        <v>0.00168871777736842</v>
       </c>
       <c r="M21">
-        <v>0.01017529877304489</v>
+        <v>0.00104149868218421</v>
       </c>
       <c r="N21">
-        <v>0.01017529877304489</v>
+        <v>0.00104149868218421</v>
       </c>
       <c r="O21">
-        <v>0.9716287952782783</v>
+        <v>0.001043228014964912</v>
       </c>
       <c r="P21">
-        <v>0.3143260468122703</v>
+        <v>2.260482522891631</v>
       </c>
       <c r="Q21">
-        <v>0.3143260468122703</v>
+        <v>2.260482522891631</v>
       </c>
       <c r="R21">
-        <v>0.466401420831883</v>
+        <v>3.390203034996355</v>
       </c>
       <c r="S21">
-        <v>0.466401420831883</v>
+        <v>3.390203034996355</v>
       </c>
       <c r="T21">
-        <v>0.8238551610927421</v>
+        <v>3.096480370117133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.589107571436648</v>
+        <v>7.154118295693157</v>
       </c>
       <c r="D22">
-        <v>1.423443948246854</v>
+        <v>5.160627581366316</v>
       </c>
       <c r="E22">
-        <v>3.589107571436648</v>
+        <v>7.154118295693157</v>
       </c>
       <c r="F22">
-        <v>0.01097219575902146</v>
+        <v>3.576956873611053</v>
       </c>
       <c r="G22">
-        <v>0.1778061872477396</v>
+        <v>0.001693561868421053</v>
       </c>
       <c r="H22">
-        <v>0.0605567227953113</v>
+        <v>15.48609909959527</v>
       </c>
       <c r="I22">
-        <v>0.01097219575902146</v>
+        <v>3.576956873611053</v>
       </c>
       <c r="J22">
-        <v>0.4681021409464109</v>
+        <v>-0.006934659375263157</v>
       </c>
       <c r="K22">
-        <v>0.01097219575902146</v>
+        <v>3.576956873611053</v>
       </c>
       <c r="L22">
-        <v>1.423443948246854</v>
+        <v>5.160627581366316</v>
       </c>
       <c r="M22">
-        <v>2.506275759841751</v>
+        <v>6.157372938529736</v>
       </c>
       <c r="N22">
-        <v>2.506275759841751</v>
+        <v>6.157372938529736</v>
       </c>
       <c r="O22">
-        <v>1.730119235643747</v>
+        <v>4.105479812975965</v>
       </c>
       <c r="P22">
-        <v>1.674507905147508</v>
+        <v>5.297234250223508</v>
       </c>
       <c r="Q22">
-        <v>1.674507905147508</v>
+        <v>5.297234250223508</v>
       </c>
       <c r="R22">
-        <v>1.258623977800386</v>
+        <v>4.867164906070395</v>
       </c>
       <c r="S22">
-        <v>1.258623977800386</v>
+        <v>4.867164906070395</v>
       </c>
       <c r="T22">
-        <v>0.9549981277386643</v>
+        <v>5.228760125459825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.0100713410659336</v>
+        <v>0.004882685303082869</v>
       </c>
       <c r="D23">
-        <v>0.3479958596716068</v>
+        <v>0.01546791224300691</v>
       </c>
       <c r="E23">
-        <v>0.0100713410659336</v>
+        <v>0.004882685303082869</v>
       </c>
       <c r="F23">
-        <v>1.645276007539249</v>
+        <v>0.922627542890721</v>
       </c>
       <c r="G23">
-        <v>1.138075822104208</v>
+        <v>2.894535788288745</v>
       </c>
       <c r="H23">
-        <v>0.001600000835005771</v>
+        <v>0.002970357101030387</v>
       </c>
       <c r="I23">
-        <v>1.645276007539249</v>
+        <v>0.922627542890721</v>
       </c>
       <c r="J23">
-        <v>1.244482298369297</v>
+        <v>1.102646680729866</v>
       </c>
       <c r="K23">
-        <v>1.645276007539249</v>
+        <v>0.922627542890721</v>
       </c>
       <c r="L23">
-        <v>0.3479958596716068</v>
+        <v>0.01546791224300691</v>
       </c>
       <c r="M23">
-        <v>0.1790336003687702</v>
+        <v>0.01017529877304489</v>
       </c>
       <c r="N23">
-        <v>0.1790336003687702</v>
+        <v>0.01017529877304489</v>
       </c>
       <c r="O23">
-        <v>0.4987143409472495</v>
+        <v>0.9716287952782783</v>
       </c>
       <c r="P23">
-        <v>0.6677810694255965</v>
+        <v>0.3143260468122703</v>
       </c>
       <c r="Q23">
-        <v>0.6677810694255965</v>
+        <v>0.3143260468122703</v>
       </c>
       <c r="R23">
-        <v>0.9121548039540095</v>
+        <v>0.466401420831883</v>
       </c>
       <c r="S23">
-        <v>0.9121548039540095</v>
+        <v>0.466401420831883</v>
       </c>
       <c r="T23">
-        <v>0.7312502215975499</v>
+        <v>0.8238551610927421</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.650064962615372</v>
+        <v>3.589107571436648</v>
       </c>
       <c r="D24">
-        <v>1.633576257107254</v>
+        <v>1.423443948246854</v>
       </c>
       <c r="E24">
-        <v>1.650064962615372</v>
+        <v>3.589107571436648</v>
       </c>
       <c r="F24">
-        <v>1.928449050339546</v>
+        <v>0.01097219575902146</v>
       </c>
       <c r="G24">
-        <v>0.5302572272526754</v>
+        <v>0.1778061872477396</v>
       </c>
       <c r="H24">
-        <v>0.05656710915642411</v>
+        <v>0.0605567227953113</v>
       </c>
       <c r="I24">
-        <v>1.928449050339546</v>
+        <v>0.01097219575902146</v>
       </c>
       <c r="J24">
-        <v>1.436277442811253</v>
+        <v>0.4681021409464109</v>
       </c>
       <c r="K24">
-        <v>1.928449050339546</v>
+        <v>0.01097219575902146</v>
       </c>
       <c r="L24">
-        <v>1.633576257107254</v>
+        <v>1.423443948246854</v>
       </c>
       <c r="M24">
-        <v>1.641820609861313</v>
+        <v>2.506275759841751</v>
       </c>
       <c r="N24">
-        <v>1.641820609861313</v>
+        <v>2.506275759841751</v>
       </c>
       <c r="O24">
-        <v>1.2712994823251</v>
+        <v>1.730119235643747</v>
       </c>
       <c r="P24">
-        <v>1.737363423354058</v>
+        <v>1.674507905147508</v>
       </c>
       <c r="Q24">
-        <v>1.737363423354058</v>
+        <v>1.674507905147508</v>
       </c>
       <c r="R24">
-        <v>1.78513483010043</v>
+        <v>1.258623977800386</v>
       </c>
       <c r="S24">
-        <v>1.78513483010043</v>
+        <v>1.258623977800386</v>
       </c>
       <c r="T24">
-        <v>1.205865341547087</v>
+        <v>0.9549981277386643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.2716770031326848</v>
+        <v>0.0100713410659336</v>
       </c>
       <c r="D25">
-        <v>0.9357684115615548</v>
+        <v>0.3479958596716068</v>
       </c>
       <c r="E25">
-        <v>0.2716770031326848</v>
+        <v>0.0100713410659336</v>
       </c>
       <c r="F25">
-        <v>-0.0005937626849366053</v>
+        <v>1.645276007539249</v>
       </c>
       <c r="G25">
-        <v>1.878512723247619</v>
+        <v>1.138075822104208</v>
       </c>
       <c r="H25">
-        <v>0.001578364062359895</v>
+        <v>0.001600000835005771</v>
       </c>
       <c r="I25">
-        <v>-0.0005937626849366053</v>
+        <v>1.645276007539249</v>
       </c>
       <c r="J25">
-        <v>0.1463426715193503</v>
+        <v>1.244482298369297</v>
       </c>
       <c r="K25">
-        <v>-0.0005937626849366053</v>
+        <v>1.645276007539249</v>
       </c>
       <c r="L25">
-        <v>0.9357684115615548</v>
+        <v>0.3479958596716068</v>
       </c>
       <c r="M25">
-        <v>0.6037227073471197</v>
+        <v>0.1790336003687702</v>
       </c>
       <c r="N25">
-        <v>0.6037227073471197</v>
+        <v>0.1790336003687702</v>
       </c>
       <c r="O25">
-        <v>1.028652712647286</v>
+        <v>0.4987143409472495</v>
       </c>
       <c r="P25">
-        <v>0.4022838840031009</v>
+        <v>0.6677810694255965</v>
       </c>
       <c r="Q25">
-        <v>0.4022838840031009</v>
+        <v>0.6677810694255965</v>
       </c>
       <c r="R25">
-        <v>0.3015644723310916</v>
+        <v>0.9121548039540095</v>
       </c>
       <c r="S25">
-        <v>0.3015644723310916</v>
+        <v>0.9121548039540095</v>
       </c>
       <c r="T25">
-        <v>0.5388809018064387</v>
+        <v>0.7312502215975499</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1783202513003949</v>
+        <v>1.650064962615372</v>
       </c>
       <c r="D26">
-        <v>0.9767053098710359</v>
+        <v>1.633576257107254</v>
       </c>
       <c r="E26">
-        <v>0.1783202513003949</v>
+        <v>1.650064962615372</v>
       </c>
       <c r="F26">
-        <v>0.02654058730980222</v>
+        <v>1.928449050339546</v>
       </c>
       <c r="G26">
-        <v>1.424682262194795</v>
+        <v>0.5302572272526754</v>
       </c>
       <c r="H26">
-        <v>0.07038654086099801</v>
+        <v>0.05656710915642411</v>
       </c>
       <c r="I26">
-        <v>0.02654058730980222</v>
+        <v>1.928449050339546</v>
       </c>
       <c r="J26">
-        <v>0.1391928806612935</v>
+        <v>1.436277442811253</v>
       </c>
       <c r="K26">
-        <v>0.02654058730980222</v>
+        <v>1.928449050339546</v>
       </c>
       <c r="L26">
-        <v>0.9767053098710359</v>
+        <v>1.633576257107254</v>
       </c>
       <c r="M26">
-        <v>0.5775127805857154</v>
+        <v>1.641820609861313</v>
       </c>
       <c r="N26">
-        <v>0.5775127805857154</v>
+        <v>1.641820609861313</v>
       </c>
       <c r="O26">
-        <v>0.8599026077887418</v>
+        <v>1.2712994823251</v>
       </c>
       <c r="P26">
-        <v>0.3938553828270777</v>
+        <v>1.737363423354058</v>
       </c>
       <c r="Q26">
-        <v>0.3938553828270777</v>
+        <v>1.737363423354058</v>
       </c>
       <c r="R26">
-        <v>0.3020266839477588</v>
+        <v>1.78513483010043</v>
       </c>
       <c r="S26">
-        <v>0.3020266839477588</v>
+        <v>1.78513483010043</v>
       </c>
       <c r="T26">
-        <v>0.4693046386997198</v>
+        <v>1.205865341547087</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.004695127923949609</v>
+        <v>0.2716770031326848</v>
       </c>
       <c r="D27">
-        <v>0.002887265353108689</v>
+        <v>0.9357684115615548</v>
       </c>
       <c r="E27">
-        <v>-0.004695127923949609</v>
+        <v>0.2716770031326848</v>
       </c>
       <c r="F27">
-        <v>1.092942102754398</v>
+        <v>-0.0005937626849366053</v>
       </c>
       <c r="G27">
-        <v>4.962101482618808</v>
+        <v>1.878512723247619</v>
       </c>
       <c r="H27">
-        <v>20.82194889704206</v>
+        <v>0.001578364062359895</v>
       </c>
       <c r="I27">
-        <v>1.092942102754398</v>
+        <v>-0.0005937626849366053</v>
       </c>
       <c r="J27">
-        <v>0.03556402554072228</v>
+        <v>0.1463426715193503</v>
       </c>
       <c r="K27">
-        <v>1.092942102754398</v>
+        <v>-0.0005937626849366053</v>
       </c>
       <c r="L27">
-        <v>0.002887265353108689</v>
+        <v>0.9357684115615548</v>
       </c>
       <c r="M27">
-        <v>-0.00090393128542046</v>
+        <v>0.6037227073471197</v>
       </c>
       <c r="N27">
-        <v>-0.00090393128542046</v>
+        <v>0.6037227073471197</v>
       </c>
       <c r="O27">
-        <v>1.653431206682656</v>
+        <v>1.028652712647286</v>
       </c>
       <c r="P27">
-        <v>0.363711413394519</v>
+        <v>0.4022838840031009</v>
       </c>
       <c r="Q27">
-        <v>0.363711413394519</v>
+        <v>0.4022838840031009</v>
       </c>
       <c r="R27">
-        <v>0.5460190857344888</v>
+        <v>0.3015644723310916</v>
       </c>
       <c r="S27">
-        <v>0.5460190857344888</v>
+        <v>0.3015644723310916</v>
       </c>
       <c r="T27">
-        <v>4.485124774230858</v>
+        <v>0.5388809018064387</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4768958952100064</v>
+        <v>0.1783202513003949</v>
       </c>
       <c r="D28">
-        <v>-0.001223754443762684</v>
+        <v>0.9767053098710359</v>
       </c>
       <c r="E28">
-        <v>0.4768958952100064</v>
+        <v>0.1783202513003949</v>
       </c>
       <c r="F28">
-        <v>1.527166214937854</v>
+        <v>0.02654058730980222</v>
       </c>
       <c r="G28">
-        <v>-0.0005988681285960854</v>
+        <v>1.424682262194795</v>
       </c>
       <c r="H28">
-        <v>0.4350583803396195</v>
+        <v>0.07038654086099801</v>
       </c>
       <c r="I28">
-        <v>1.527166214937854</v>
+        <v>0.02654058730980222</v>
       </c>
       <c r="J28">
-        <v>0.1566442395049712</v>
+        <v>0.1391928806612935</v>
       </c>
       <c r="K28">
-        <v>1.527166214937854</v>
+        <v>0.02654058730980222</v>
       </c>
       <c r="L28">
-        <v>-0.001223754443762684</v>
+        <v>0.9767053098710359</v>
       </c>
       <c r="M28">
-        <v>0.2378360703831219</v>
+        <v>0.5775127805857154</v>
       </c>
       <c r="N28">
-        <v>0.2378360703831219</v>
+        <v>0.5775127805857154</v>
       </c>
       <c r="O28">
-        <v>0.1583577575458825</v>
+        <v>0.8599026077887418</v>
       </c>
       <c r="P28">
-        <v>0.6676127852346995</v>
+        <v>0.3938553828270777</v>
       </c>
       <c r="Q28">
-        <v>0.6676127852346995</v>
+        <v>0.3938553828270777</v>
       </c>
       <c r="R28">
-        <v>0.8825011426604882</v>
+        <v>0.3020266839477588</v>
       </c>
       <c r="S28">
-        <v>0.8825011426604882</v>
+        <v>0.3020266839477588</v>
       </c>
       <c r="T28">
-        <v>0.4323236845700155</v>
+        <v>0.4693046386997198</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.004695127923949609</v>
+      </c>
+      <c r="D29">
+        <v>0.002887265353108689</v>
+      </c>
+      <c r="E29">
+        <v>-0.004695127923949609</v>
+      </c>
+      <c r="F29">
+        <v>1.092942102754398</v>
+      </c>
+      <c r="G29">
+        <v>4.962101482618808</v>
+      </c>
+      <c r="H29">
+        <v>20.82194889704206</v>
+      </c>
+      <c r="I29">
+        <v>1.092942102754398</v>
+      </c>
+      <c r="J29">
+        <v>0.03556402554072228</v>
+      </c>
+      <c r="K29">
+        <v>1.092942102754398</v>
+      </c>
+      <c r="L29">
+        <v>0.002887265353108689</v>
+      </c>
+      <c r="M29">
+        <v>-0.00090393128542046</v>
+      </c>
+      <c r="N29">
+        <v>-0.00090393128542046</v>
+      </c>
+      <c r="O29">
+        <v>1.653431206682656</v>
+      </c>
+      <c r="P29">
+        <v>0.363711413394519</v>
+      </c>
+      <c r="Q29">
+        <v>0.363711413394519</v>
+      </c>
+      <c r="R29">
+        <v>0.5460190857344888</v>
+      </c>
+      <c r="S29">
+        <v>0.5460190857344888</v>
+      </c>
+      <c r="T29">
+        <v>4.485124774230858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.4768958952100064</v>
+      </c>
+      <c r="D30">
+        <v>-0.001223754443762684</v>
+      </c>
+      <c r="E30">
+        <v>0.4768958952100064</v>
+      </c>
+      <c r="F30">
+        <v>1.527166214937854</v>
+      </c>
+      <c r="G30">
+        <v>-0.0005988681285960854</v>
+      </c>
+      <c r="H30">
+        <v>0.4350583803396195</v>
+      </c>
+      <c r="I30">
+        <v>1.527166214937854</v>
+      </c>
+      <c r="J30">
+        <v>0.1566442395049712</v>
+      </c>
+      <c r="K30">
+        <v>1.527166214937854</v>
+      </c>
+      <c r="L30">
+        <v>-0.001223754443762684</v>
+      </c>
+      <c r="M30">
+        <v>0.2378360703831219</v>
+      </c>
+      <c r="N30">
+        <v>0.2378360703831219</v>
+      </c>
+      <c r="O30">
+        <v>0.1583577575458825</v>
+      </c>
+      <c r="P30">
+        <v>0.6676127852346995</v>
+      </c>
+      <c r="Q30">
+        <v>0.6676127852346995</v>
+      </c>
+      <c r="R30">
+        <v>0.8825011426604882</v>
+      </c>
+      <c r="S30">
+        <v>0.8825011426604882</v>
+      </c>
+      <c r="T30">
+        <v>0.4323236845700155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.008727974098890671</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.01143797749729412</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.008727974098890671</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>3.445126965506369</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.0007172501482144425</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.005525204935573085</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>3.445126965506369</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.002644024967560861</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>3.445126965506369</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>-0.01143797749729412</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>-0.001355001699201725</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>-0.001355001699201725</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>-0.0006642510833963358</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.147472320702655</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.147472320702655</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.721885981903584</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.721885981903584</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.5724941637255077</v>
       </c>
     </row>
